--- a/质量数据.xlsx
+++ b/质量数据.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>9月第3周</t>
   </si>
@@ -124,18 +124,18 @@
     <t>TOP 2</t>
   </si>
   <si>
+    <t>2.12.3-etm|6</t>
+  </si>
+  <si>
+    <t>2.16.3-tgp-plugin|6</t>
+  </si>
+  <si>
+    <t>TOP 3</t>
+  </si>
+  <si>
     <t>2.12.3-rule_mgr|11</t>
   </si>
   <si>
-    <t>2.16.3-tgp-plugin|6</t>
-  </si>
-  <si>
-    <t>TOP 3</t>
-  </si>
-  <si>
-    <t>2.12.3-etm|6</t>
-  </si>
-  <si>
     <t>2.16.3-etm|11</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>2.12.3-sysapihttpd|6</t>
   </si>
   <si>
+    <t>2.16.3-cachecenter|11</t>
+  </si>
+  <si>
+    <t>TOP 5</t>
+  </si>
+  <si>
+    <t>2.12.3-etm|11</t>
+  </si>
+  <si>
     <t>2.16.3-indexservice|6</t>
   </si>
   <si>
-    <t>TOP 5</t>
-  </si>
-  <si>
-    <t>2.12.3-etm|11</t>
-  </si>
-  <si>
-    <t>2.16.3-cachecenter|11</t>
-  </si>
-  <si>
     <t>TOP 6</t>
   </si>
   <si>
@@ -181,24 +181,24 @@
     <t>2.12.3-iqiyi_server|11</t>
   </si>
   <si>
+    <t>2.16.3-thread_pool|11</t>
+  </si>
+  <si>
+    <t>TOP 9</t>
+  </si>
+  <si>
+    <t>2.12.3-smbd|10</t>
+  </si>
+  <si>
     <t>2.16.3-P2PEngine|11</t>
   </si>
   <si>
-    <t>TOP 9</t>
+    <t>TOP 10</t>
   </si>
   <si>
     <t>2.12.3-iqiyi_server|10</t>
   </si>
   <si>
-    <t>2.16.3-thread_pool|11</t>
-  </si>
-  <si>
-    <t>TOP 10</t>
-  </si>
-  <si>
-    <t>2.12.3-smbd|10</t>
-  </si>
-  <si>
     <t>2.16.3-etm|6</t>
   </si>
   <si>
@@ -223,19 +223,16 @@
     <t>2.14.6-taskmonitorServ|4</t>
   </si>
   <si>
+    <t>2.16.3-iqiyi_server|6</t>
+  </si>
+  <si>
+    <t>2.14.6-taskmonitorServ|11</t>
+  </si>
+  <si>
     <t>2.14.6-iwevent-call|11</t>
   </si>
   <si>
-    <t>2.16.3-iqiyi_server|6</t>
-  </si>
-  <si>
     <t>2.14.6-awk|11</t>
-  </si>
-  <si>
-    <t>2.16.3-tunnelserver|11</t>
-  </si>
-  <si>
-    <t>2.14.6-taskmonitorServ|11</t>
   </si>
 </sst>
 </file>
@@ -758,7 +755,7 @@
         <v>1088</v>
       </c>
       <c s="4" r="E3" t="n">
-        <v>2957</v>
+        <v>2932</v>
       </c>
       <c s="5" r="F3">
         <f si="0" ref="F3:F6" t="shared">(E3-D3)/D3</f>
@@ -774,7 +771,7 @@
         <v>671</v>
       </c>
       <c s="4" r="E4" t="n">
-        <v>1245</v>
+        <v>1218</v>
       </c>
       <c s="5" r="F4">
         <f si="0" t="shared"/>
@@ -790,7 +787,7 @@
         <v>2219864</v>
       </c>
       <c s="4" r="E5" t="n">
-        <v>2221863</v>
+        <v>2222199</v>
       </c>
       <c s="5" r="F5">
         <f si="0" t="shared"/>
@@ -807,7 +804,7 @@
         <v/>
       </c>
       <c s="5" r="E6" t="n">
-        <v>0.99944</v>
+        <v>0.9994499999999999</v>
       </c>
       <c s="5" r="F6">
         <f si="0" t="shared"/>
@@ -858,7 +855,7 @@
         <v>272130</v>
       </c>
       <c s="4" r="E9" t="n">
-        <v>271775</v>
+        <v>271681</v>
       </c>
       <c s="5" r="F9">
         <f si="1" t="shared"/>
@@ -902,7 +899,7 @@
         <v>510</v>
       </c>
       <c s="4" r="E11" t="n">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c s="5" r="F11">
         <f si="2" ref="F11:F14" t="shared">(E11-D11)/D11</f>
@@ -919,7 +916,7 @@
         <v>414</v>
       </c>
       <c s="4" r="E12" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c s="5" r="F12">
         <f si="2" t="shared"/>
@@ -936,7 +933,7 @@
         <v>163068</v>
       </c>
       <c s="4" r="E13" t="n">
-        <v>164085</v>
+        <v>164137</v>
       </c>
       <c s="5" r="F13">
         <f si="2" t="shared"/>
@@ -974,7 +971,7 @@
         <v>412</v>
       </c>
       <c s="4" r="E15" t="n">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c s="5" r="F15">
         <f si="3" ref="F15:F18" t="shared">(E15-D15)/D15</f>
@@ -991,7 +988,7 @@
         <v>362</v>
       </c>
       <c s="4" r="E16" t="n">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c s="5" r="F16">
         <f si="3" t="shared"/>
@@ -1008,7 +1005,7 @@
         <v>467469</v>
       </c>
       <c s="4" r="E17" t="n">
-        <v>476433</v>
+        <v>476464</v>
       </c>
       <c s="5" r="F17">
         <f si="3" t="shared"/>
@@ -1025,7 +1022,7 @@
         <v/>
       </c>
       <c s="5" r="E18" t="n">
-        <v>0.99896</v>
+        <v>0.99902</v>
       </c>
       <c s="5" r="F18">
         <f si="3" t="shared"/>
@@ -1043,7 +1040,7 @@
         <v>451</v>
       </c>
       <c s="4" r="E19" t="n">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c s="5" r="F19">
         <f si="4" ref="F19:F22" t="shared">(E19-D19)/D19</f>
@@ -1058,7 +1055,7 @@
         <v>320</v>
       </c>
       <c s="4" r="E20" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c s="5" r="F20">
         <f si="4" t="shared"/>
@@ -1073,7 +1070,7 @@
         <v>726568</v>
       </c>
       <c s="4" r="E21" t="n">
-        <v>753239</v>
+        <v>755470</v>
       </c>
       <c s="5" r="F21">
         <f si="4" t="shared"/>
@@ -1108,7 +1105,7 @@
         <v>2</v>
       </c>
       <c s="4" r="E23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c s="5" r="F23">
         <f si="5" ref="F23:F26" t="shared">(E23-D23)/D23</f>
@@ -1140,7 +1137,7 @@
         <v>79058</v>
       </c>
       <c s="4" r="E25" t="n">
-        <v>91143</v>
+        <v>92033</v>
       </c>
       <c s="5" r="F25">
         <f si="5" t="shared"/>
@@ -1176,7 +1173,7 @@
         <v>799</v>
       </c>
       <c s="4" r="E27" t="n">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c s="5" r="F27">
         <f si="6" ref="F27:F30" t="shared">(E27-D27)/D27</f>
@@ -1192,7 +1189,7 @@
         <v>579</v>
       </c>
       <c s="4" r="E28" t="n">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c s="5" r="F28">
         <f si="6" t="shared"/>
@@ -1208,7 +1205,7 @@
         <v>227185</v>
       </c>
       <c s="4" r="E29" t="n">
-        <v>235762</v>
+        <v>241475</v>
       </c>
       <c s="5" r="F29">
         <f si="6" t="shared"/>
@@ -1225,7 +1222,7 @@
         <v/>
       </c>
       <c s="5" r="E30" t="n">
-        <v>0.99754</v>
+        <v>0.99762</v>
       </c>
       <c s="5" r="F30">
         <f si="6" t="shared"/>
@@ -1244,7 +1241,7 @@
         <v>401</v>
       </c>
       <c s="4" r="E31" t="n">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c s="5" r="F31">
         <f si="7" ref="F31:F34" t="shared">(E31-D31)/D31</f>
@@ -1260,7 +1257,7 @@
         <v>334</v>
       </c>
       <c s="4" r="E32" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c s="5" r="F32">
         <f si="7" t="shared"/>
@@ -1276,7 +1273,7 @@
         <v>126798</v>
       </c>
       <c s="4" r="E33" t="n">
-        <v>131792</v>
+        <v>134608</v>
       </c>
       <c s="5" r="F33">
         <f si="7" t="shared"/>
@@ -1293,7 +1290,7 @@
         <v/>
       </c>
       <c s="5" r="E34" t="n">
-        <v>0.99732</v>
+        <v>0.99738</v>
       </c>
       <c s="5" r="F34">
         <f si="7" t="shared"/>
@@ -2310,7 +2307,7 @@
         <v>1.8</v>
       </c>
       <c s="4" r="E4" t="n">
-        <v>2039</v>
+        <v>2014</v>
       </c>
       <c s="5" r="F4" t="n"/>
     </row>
@@ -2322,7 +2319,7 @@
         <v>2</v>
       </c>
       <c s="4" r="E5" t="n">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c s="5" r="F5" t="n"/>
     </row>
@@ -2334,7 +2331,7 @@
         <v>1208033</v>
       </c>
       <c s="4" r="E6" t="n">
-        <v>583233</v>
+        <v>666466</v>
       </c>
       <c s="5" r="F6" t="n"/>
     </row>
@@ -2346,7 +2343,7 @@
         <v>0.99999</v>
       </c>
       <c s="5" r="E7" t="n">
-        <v>0.99903</v>
+        <v>0.99917</v>
       </c>
       <c s="5" r="F7">
         <f>(E7-D7)/D7</f>
@@ -2400,7 +2397,7 @@
         <v>194833</v>
       </c>
       <c s="4" r="E11" t="n">
-        <v>196810</v>
+        <v>196866</v>
       </c>
       <c s="5" r="F11" t="n"/>
     </row>
@@ -2445,7 +2442,7 @@
         <v>38</v>
       </c>
       <c s="4" r="E14" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c s="5" r="F14" t="n"/>
       <c s="14" r="I14" t="n"/>
@@ -2459,7 +2456,7 @@
         <v>27</v>
       </c>
       <c s="4" r="E15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c s="5" r="F15" t="n"/>
     </row>
@@ -2471,7 +2468,7 @@
         <v>134412</v>
       </c>
       <c s="4" r="E16" t="n">
-        <v>136690</v>
+        <v>136811</v>
       </c>
       <c s="5" r="F16" t="n"/>
     </row>
@@ -2484,7 +2481,7 @@
         <v/>
       </c>
       <c s="5" r="E17" t="n">
-        <v>0.9998</v>
+        <v>0.99981</v>
       </c>
       <c s="5" r="F17">
         <f>(E17-D17)/D17</f>
@@ -2538,7 +2535,7 @@
         <v>236021</v>
       </c>
       <c s="4" r="E21" t="n">
-        <v>286063</v>
+        <v>285733</v>
       </c>
       <c s="5" r="F21" t="n"/>
     </row>
@@ -2581,7 +2578,7 @@
         <v>7</v>
       </c>
       <c s="4" r="E24" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c s="5" r="F24" t="n"/>
     </row>
@@ -2593,7 +2590,7 @@
         <v>7</v>
       </c>
       <c s="4" r="E25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c s="5" r="F25" t="n"/>
     </row>
@@ -2605,7 +2602,7 @@
         <v>553681</v>
       </c>
       <c s="4" r="E26" t="n">
-        <v>359154</v>
+        <v>392128</v>
       </c>
       <c s="5" r="F26" t="n"/>
     </row>
@@ -2672,7 +2669,7 @@
         <v>48710</v>
       </c>
       <c s="4" r="E31" t="n">
-        <v>55948</v>
+        <v>56505</v>
       </c>
       <c s="5" r="F31" t="n"/>
     </row>
@@ -2715,7 +2712,7 @@
         <v>463</v>
       </c>
       <c s="4" r="E34" t="n">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c s="5" r="F34" t="n"/>
     </row>
@@ -2727,7 +2724,7 @@
         <v>398</v>
       </c>
       <c s="4" r="E35" t="n">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c s="5" r="F35" t="n"/>
     </row>
@@ -2739,7 +2736,7 @@
         <v>187002</v>
       </c>
       <c s="4" r="E36" t="n">
-        <v>195669</v>
+        <v>200890</v>
       </c>
       <c s="5" r="F36" t="n"/>
     </row>
@@ -2752,7 +2749,7 @@
         <v/>
       </c>
       <c s="5" r="E37" t="n">
-        <v>0.99795</v>
+        <v>0.99802</v>
       </c>
       <c s="5" r="F37">
         <f>(E37-D37)/D37</f>
@@ -2782,7 +2779,7 @@
         <v>308</v>
       </c>
       <c s="4" r="E39" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="5" r="F39" t="n"/>
     </row>
@@ -2794,7 +2791,7 @@
         <v>257</v>
       </c>
       <c s="4" r="E40" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="5" r="F40" t="n"/>
     </row>
@@ -2806,7 +2803,7 @@
         <v>115443</v>
       </c>
       <c s="4" r="E41" t="n">
-        <v>120666</v>
+        <v>123444</v>
       </c>
       <c s="5" r="F41" t="n"/>
     </row>
@@ -2819,7 +2816,7 @@
         <v/>
       </c>
       <c s="5" r="E42" t="n">
-        <v>0.99775</v>
+        <v>0.99779</v>
       </c>
       <c s="5" r="F42">
         <f>(E42-D42)/D42</f>
@@ -2896,7 +2893,7 @@
         <v>32</v>
       </c>
       <c s="4" r="D3" t="n">
-        <v>5626</v>
+        <v>5799</v>
       </c>
       <c s="5" r="E3" t="n">
         <v>0.00497</v>
@@ -2908,10 +2905,10 @@
         <v>33</v>
       </c>
       <c s="6" r="H3" t="n">
-        <v>2673</v>
+        <v>2714</v>
       </c>
       <c s="5" r="I3" t="n">
-        <v>0.01358</v>
+        <v>0.01376</v>
       </c>
     </row>
     <row customHeight="1" r="4" ht="16.5" spans="1:9">
@@ -2922,10 +2919,10 @@
         <v>35</v>
       </c>
       <c s="4" r="D4" t="n">
-        <v>5057</v>
+        <v>5567</v>
       </c>
       <c s="5" r="E4" t="n">
-        <v>0.00446</v>
+        <v>0.00478</v>
       </c>
       <c s="2" r="F4" t="s">
         <v>34</v>
@@ -2934,10 +2931,10 @@
         <v>36</v>
       </c>
       <c s="6" r="H4" t="n">
-        <v>2491</v>
+        <v>2635</v>
       </c>
       <c s="5" r="I4" t="n">
-        <v>0.01265</v>
+        <v>0.01336</v>
       </c>
     </row>
     <row customHeight="1" r="5" ht="16.5" spans="1:9">
@@ -2948,10 +2945,10 @@
         <v>38</v>
       </c>
       <c s="4" r="D5" t="n">
-        <v>4764</v>
+        <v>5392</v>
       </c>
       <c s="5" r="E5" t="n">
-        <v>0.00421</v>
+        <v>0.00462</v>
       </c>
       <c s="2" r="F5" t="s">
         <v>37</v>
@@ -2960,10 +2957,10 @@
         <v>39</v>
       </c>
       <c s="6" r="H5" t="n">
-        <v>1075</v>
+        <v>937</v>
       </c>
       <c s="5" r="I5" t="n">
-        <v>0.00546</v>
+        <v>0.00475</v>
       </c>
     </row>
     <row customHeight="1" r="6" ht="16.5" spans="1:9">
@@ -2974,10 +2971,10 @@
         <v>41</v>
       </c>
       <c s="4" r="D6" t="n">
-        <v>1052</v>
+        <v>1223</v>
       </c>
       <c s="5" r="E6" t="n">
-        <v>0.0009300000000000001</v>
+        <v>0.00105</v>
       </c>
       <c s="2" r="F6" t="s">
         <v>40</v>
@@ -2986,10 +2983,10 @@
         <v>42</v>
       </c>
       <c s="6" r="H6" t="n">
-        <v>628</v>
+        <v>747</v>
       </c>
       <c s="5" r="I6" t="n">
-        <v>0.00319</v>
+        <v>0.00379</v>
       </c>
     </row>
     <row customHeight="1" r="7" ht="16.5" spans="1:9">
@@ -3000,10 +2997,10 @@
         <v>44</v>
       </c>
       <c s="4" r="D7" t="n">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c s="5" r="E7" t="n">
-        <v>0.0004</v>
+        <v>0.00038</v>
       </c>
       <c s="2" r="F7" t="s">
         <v>43</v>
@@ -3012,10 +3009,10 @@
         <v>45</v>
       </c>
       <c s="6" r="H7" t="n">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c s="5" r="I7" t="n">
-        <v>0.00315</v>
+        <v>0.00318</v>
       </c>
     </row>
     <row customHeight="1" r="8" ht="16.5" spans="1:9">
@@ -3026,10 +3023,10 @@
         <v>47</v>
       </c>
       <c s="4" r="D8" t="n">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c s="5" r="E8" t="n">
-        <v>0.00037</v>
+        <v>0.00036</v>
       </c>
       <c s="2" r="F8" t="s">
         <v>46</v>
@@ -3038,10 +3035,10 @@
         <v>48</v>
       </c>
       <c s="6" r="H8" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c s="5" r="I8" t="n">
-        <v>0.00312</v>
+        <v>0.00311</v>
       </c>
     </row>
     <row customHeight="1" r="9" ht="16.5" spans="1:9">
@@ -3052,10 +3049,10 @@
         <v>50</v>
       </c>
       <c s="4" r="D9" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c s="5" r="E9" t="n">
-        <v>0.00034</v>
+        <v>0.00033</v>
       </c>
       <c s="2" r="F9" t="s">
         <v>49</v>
@@ -3064,10 +3061,10 @@
         <v>51</v>
       </c>
       <c s="6" r="H9" t="n">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c s="5" r="I9" t="n">
-        <v>0.00287</v>
+        <v>0.00285</v>
       </c>
     </row>
     <row customHeight="1" r="10" ht="16.5" spans="1:9">
@@ -3078,10 +3075,10 @@
         <v>53</v>
       </c>
       <c s="4" r="D10" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c s="5" r="E10" t="n">
-        <v>0.00025</v>
+        <v>0.00024</v>
       </c>
       <c s="2" r="F10" t="s">
         <v>52</v>
@@ -3090,10 +3087,10 @@
         <v>54</v>
       </c>
       <c s="6" r="H10" t="n">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c s="5" r="I10" t="n">
-        <v>0.00265</v>
+        <v>0.00274</v>
       </c>
     </row>
     <row customHeight="1" r="11" ht="16.5" spans="1:9">
@@ -3104,10 +3101,10 @@
         <v>56</v>
       </c>
       <c s="4" r="D11" t="n">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c s="5" r="E11" t="n">
-        <v>0.00019</v>
+        <v>0.0002</v>
       </c>
       <c s="2" r="F11" t="s">
         <v>55</v>
@@ -3116,10 +3113,10 @@
         <v>57</v>
       </c>
       <c s="6" r="H11" t="n">
-        <v>477</v>
+        <v>524</v>
       </c>
       <c s="5" r="I11" t="n">
-        <v>0.00242</v>
+        <v>0.00266</v>
       </c>
     </row>
     <row customHeight="1" r="12" ht="16.5" spans="1:9">
@@ -3130,10 +3127,10 @@
         <v>59</v>
       </c>
       <c s="4" r="D12" t="n">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c s="5" r="E12" t="n">
-        <v>0.00018</v>
+        <v>0.0002</v>
       </c>
       <c s="2" r="F12" t="s">
         <v>58</v>
@@ -3142,10 +3139,10 @@
         <v>60</v>
       </c>
       <c s="6" r="H12" t="n">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c s="5" r="I12" t="n">
-        <v>0.00128</v>
+        <v>0.00139</v>
       </c>
     </row>
     <row customHeight="1" r="13" ht="16.5" spans="1:9">
@@ -3178,10 +3175,10 @@
         <v>36</v>
       </c>
       <c s="4" r="D14" t="n">
-        <v>1647</v>
+        <v>1711</v>
       </c>
       <c s="5" r="E14" t="n">
-        <v>0.012</v>
+        <v>0.01244</v>
       </c>
       <c s="2" r="F14" t="s">
         <v>31</v>
@@ -3190,10 +3187,10 @@
         <v>61</v>
       </c>
       <c s="6" r="H14" t="n">
-        <v>2144</v>
+        <v>2248</v>
       </c>
       <c s="5" r="I14" t="n">
-        <v>0.00368</v>
+        <v>0.00381</v>
       </c>
     </row>
     <row customHeight="1" r="15" ht="16.5" spans="1:9">
@@ -3204,10 +3201,10 @@
         <v>39</v>
       </c>
       <c s="4" r="D15" t="n">
-        <v>735</v>
+        <v>647</v>
       </c>
       <c s="5" r="E15" t="n">
-        <v>0.00535</v>
+        <v>0.0047</v>
       </c>
       <c s="2" r="F15" t="s">
         <v>34</v>
@@ -3216,10 +3213,10 @@
         <v>62</v>
       </c>
       <c s="6" r="H15" t="n">
-        <v>1399</v>
+        <v>1490</v>
       </c>
       <c s="5" r="I15" t="n">
-        <v>0.0024</v>
+        <v>0.00253</v>
       </c>
     </row>
     <row customHeight="1" r="16" ht="16.5" spans="1:9">
@@ -3227,13 +3224,13 @@
         <v>37</v>
       </c>
       <c s="3" r="C16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c s="4" r="D16" t="n">
-        <v>563</v>
+        <v>647</v>
       </c>
       <c s="5" r="E16" t="n">
-        <v>0.0041</v>
+        <v>0.0047</v>
       </c>
       <c s="2" r="F16" t="s">
         <v>37</v>
@@ -3242,10 +3239,10 @@
         <v>63</v>
       </c>
       <c s="6" r="H16" t="n">
-        <v>1273</v>
+        <v>1367</v>
       </c>
       <c s="5" r="I16" t="n">
-        <v>0.00219</v>
+        <v>0.00232</v>
       </c>
     </row>
     <row customHeight="1" r="17" ht="16.5" spans="1:9">
@@ -3253,13 +3250,13 @@
         <v>40</v>
       </c>
       <c s="3" r="C17" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c s="4" r="D17" t="n">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c s="5" r="E17" t="n">
-        <v>0.00408</v>
+        <v>0.00431</v>
       </c>
       <c s="2" r="F17" t="s">
         <v>40</v>
@@ -3268,10 +3265,10 @@
         <v>64</v>
       </c>
       <c s="6" r="H17" t="n">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c s="5" r="I17" t="n">
-        <v>0.0008899999999999999</v>
+        <v>0.00091</v>
       </c>
     </row>
     <row customHeight="1" r="18" ht="16.5" spans="1:9">
@@ -3279,13 +3276,13 @@
         <v>43</v>
       </c>
       <c s="3" r="C18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c s="4" r="D18" t="n">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c s="5" r="E18" t="n">
-        <v>0.00403</v>
+        <v>0.0042</v>
       </c>
       <c s="2" r="F18" t="s">
         <v>43</v>
@@ -3294,10 +3291,10 @@
         <v>65</v>
       </c>
       <c s="6" r="H18" t="n">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c s="5" r="I18" t="n">
-        <v>0.00071</v>
+        <v>0.00077</v>
       </c>
     </row>
     <row customHeight="1" r="19" ht="16.5" spans="1:9">
@@ -3308,10 +3305,10 @@
         <v>57</v>
       </c>
       <c s="4" r="D19" t="n">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c s="5" r="E19" t="n">
-        <v>0.0032</v>
+        <v>0.00336</v>
       </c>
       <c s="2" r="F19" t="s">
         <v>46</v>
@@ -3320,10 +3317,10 @@
         <v>66</v>
       </c>
       <c s="6" r="H19" t="n">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c s="5" r="I19" t="n">
-        <v>0.0005</v>
+        <v>0.00043</v>
       </c>
     </row>
     <row customHeight="1" r="20" ht="16.5" spans="1:9">
@@ -3334,10 +3331,10 @@
         <v>54</v>
       </c>
       <c s="4" r="D20" t="n">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c s="5" r="E20" t="n">
-        <v>0.00305</v>
+        <v>0.00324</v>
       </c>
       <c s="2" r="F20" t="s">
         <v>49</v>
@@ -3346,10 +3343,10 @@
         <v>67</v>
       </c>
       <c s="6" r="H20" t="n">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c s="5" r="I20" t="n">
-        <v>0.00035</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row customHeight="1" r="21" ht="16.5" spans="1:9">
@@ -3357,25 +3354,25 @@
         <v>52</v>
       </c>
       <c s="3" r="C21" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c s="4" r="D21" t="n">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c s="5" r="E21" t="n">
-        <v>0.00154</v>
+        <v>0.00164</v>
       </c>
       <c s="2" r="F21" t="s">
         <v>52</v>
       </c>
       <c s="4" r="G21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="6" r="H21" t="n">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c s="5" r="I21" t="n">
-        <v>0.00034</v>
+        <v>0.00038</v>
       </c>
     </row>
     <row customHeight="1" r="22" ht="16.5" spans="1:9">
@@ -3383,13 +3380,13 @@
         <v>55</v>
       </c>
       <c s="3" r="C22" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c s="4" r="D22" t="n">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c s="5" r="E22" t="n">
-        <v>0.00136</v>
+        <v>0.00161</v>
       </c>
       <c s="2" r="F22" t="s">
         <v>55</v>
@@ -3398,10 +3395,10 @@
         <v>70</v>
       </c>
       <c s="6" r="H22" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c s="5" r="I22" t="n">
-        <v>0.00032</v>
+        <v>0.00036</v>
       </c>
     </row>
     <row customHeight="1" r="23" ht="16.5" spans="1:9">
@@ -3409,25 +3406,25 @@
         <v>58</v>
       </c>
       <c s="3" r="C23" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c s="4" r="D23" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c s="5" r="E23" t="n">
-        <v>0.00098</v>
+        <v>0.00102</v>
       </c>
       <c s="2" r="F23" t="s">
         <v>58</v>
       </c>
       <c s="4" r="G23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c s="6" r="H23" t="n">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c s="5" r="I23" t="n">
-        <v>0.00028</v>
+        <v>0.00034</v>
       </c>
     </row>
   </sheetData>

--- a/质量数据.xlsx
+++ b/质量数据.xlsx
@@ -465,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -527,6 +527,7 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -840,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +939,7 @@
     </row>
     <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -996,7 +997,7 @@
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="36"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1053,7 @@
     </row>
     <row r="5" spans="1:31" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
-      <c r="B5" s="37"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1108,7 +1109,7 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:31" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
@@ -1165,7 +1166,7 @@
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1224,7 +1225,7 @@
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
-      <c r="B8" s="36"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1281,7 +1282,7 @@
     </row>
     <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="36"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1338,7 +1339,7 @@
     </row>
     <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
-      <c r="B10" s="36"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1404,7 +1405,7 @@
     </row>
     <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1464,7 +1465,7 @@
     </row>
     <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
-      <c r="B12" s="36"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1521,7 +1522,7 @@
     </row>
     <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
-      <c r="B13" s="36"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1578,7 +1579,7 @@
     </row>
     <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
-      <c r="B14" s="36"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
@@ -1636,7 +1637,7 @@
     </row>
     <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1695,7 +1696,7 @@
     </row>
     <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="36"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1752,7 +1753,7 @@
     </row>
     <row r="17" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="36"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1808,7 +1809,7 @@
     </row>
     <row r="18" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="36"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="10" t="s">
         <v>19</v>
       </c>
@@ -1864,7 +1865,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1921,7 +1922,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="36"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1976,7 +1977,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2031,7 +2032,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="10" t="s">
         <v>19</v>
       </c>
@@ -2088,7 +2089,7 @@
     </row>
     <row r="23" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2146,7 +2147,7 @@
     </row>
     <row r="24" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="36"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2202,7 +2203,7 @@
     </row>
     <row r="25" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="36"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
@@ -2258,7 +2259,7 @@
     </row>
     <row r="26" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
-      <c r="B26" s="36"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="10" t="s">
         <v>19</v>
       </c>
@@ -2315,7 +2316,7 @@
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2373,7 +2374,7 @@
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
-      <c r="B28" s="36"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2429,7 +2430,7 @@
     </row>
     <row r="29" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
-      <c r="B29" s="36"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
@@ -2485,7 +2486,7 @@
     </row>
     <row r="30" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
-      <c r="B30" s="36"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="10" t="s">
         <v>19</v>
       </c>
@@ -2542,7 +2543,7 @@
     </row>
     <row r="31" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2600,7 +2601,7 @@
     </row>
     <row r="32" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
-      <c r="B32" s="36"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
@@ -2656,7 +2657,7 @@
     </row>
     <row r="33" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
-      <c r="B33" s="36"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="2" t="s">
         <v>18</v>
       </c>
@@ -2712,7 +2713,7 @@
     </row>
     <row r="34" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
-      <c r="B34" s="36"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="10" t="s">
         <v>19</v>
       </c>
@@ -2793,6 +2794,10 @@
         <f>SUM(Q5,Q9,Q13,Q21)</f>
         <v>3856029</v>
       </c>
+      <c r="R36" s="35">
+        <f>SUM(R5,R9,R13,R21)</f>
+        <v>3891060</v>
+      </c>
     </row>
     <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
@@ -2815,6 +2820,10 @@
       <c r="Q37" s="31">
         <f t="shared" si="2"/>
         <v>4777212</v>
+      </c>
+      <c r="R37" s="35">
+        <f t="shared" ref="R37" si="3">SUM(R5,R9,R13,R17,R21,R25)</f>
+        <v>4836074</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3746,7 +3755,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3754,8 +3763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3831,7 +3840,7 @@
       </c>
     </row>
     <row r="3" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3885,7 +3894,7 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
@@ -3935,12 +3944,12 @@
         <v>663</v>
       </c>
       <c r="S4" s="5">
-        <f>(Q4-P4)/P4</f>
-        <v>6.0734463276836161E-2</v>
+        <f>(R4-Q4)/Q4</f>
+        <v>-0.11717709720372836</v>
       </c>
     </row>
     <row r="5" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
@@ -3990,12 +3999,12 @@
         <v>499</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" ref="S5:S7" si="0">(Q5-P5)/P5</f>
-        <v>7.5614366729678641E-3</v>
+        <f t="shared" ref="S5:S7" si="0">(R5-Q5)/Q5</f>
+        <v>-6.3789868667917443E-2</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
@@ -4046,11 +4055,11 @@
       </c>
       <c r="S6" s="5">
         <f t="shared" si="0"/>
-        <v>3.6035897534446642E-3</v>
+        <v>-9.5035818423989338E-2</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
@@ -4101,11 +4110,11 @@
       </c>
       <c r="S7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.0004101681643965E-5</v>
       </c>
     </row>
     <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4159,7 +4168,7 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
@@ -4209,12 +4218,12 @@
         <v>1</v>
       </c>
       <c r="S9" s="5">
-        <f t="shared" ref="S9:S42" si="1">(Q9-P9)/P9</f>
+        <f t="shared" ref="S9:S42" si="1">(R9-Q9)/Q9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
@@ -4269,7 +4278,7 @@
       </c>
     </row>
     <row r="11" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
@@ -4320,11 +4329,11 @@
       </c>
       <c r="S11" s="5">
         <f t="shared" si="1"/>
-        <v>2.4569058710222693E-5</v>
+        <v>-6.9774412445396605E-4</v>
       </c>
     </row>
     <row r="12" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
@@ -4381,7 +4390,7 @@
       <c r="Y12" s="13"/>
     </row>
     <row r="13" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -4436,7 +4445,7 @@
       <c r="Y13" s="13"/>
     </row>
     <row r="14" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
@@ -4486,14 +4495,14 @@
         <v>57</v>
       </c>
       <c r="S14" s="5">
-        <f t="shared" ref="S14" si="2">(Q14-P14)/P14</f>
-        <v>0.14634146341463414</v>
+        <f t="shared" ref="S14" si="2">(R14-Q14)/Q14</f>
+        <v>0.21276595744680851</v>
       </c>
       <c r="V14" s="14"/>
       <c r="Y14" s="13"/>
     </row>
     <row r="15" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
@@ -4544,11 +4553,11 @@
       </c>
       <c r="S15" s="5">
         <f t="shared" si="1"/>
-        <v>3.0303030303030304E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
@@ -4599,11 +4608,11 @@
       </c>
       <c r="S16" s="5">
         <f t="shared" si="1"/>
-        <v>8.5283655339898172E-3</v>
+        <v>4.7216668552818543E-3</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="10" t="s">
         <v>19</v>
       </c>
@@ -4655,11 +4664,11 @@
       </c>
       <c r="S17" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.000420088209422E-5</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -4713,7 +4722,7 @@
       <c r="S18" s="2"/>
     </row>
     <row r="19" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
@@ -4763,12 +4772,12 @@
         <v>1</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" ref="S19" si="3">(Q19-P19)/P19</f>
-        <v>1</v>
+        <f t="shared" ref="S19" si="3">(R19-Q19)/Q19</f>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="20" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="39"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
@@ -4819,11 +4828,11 @@
       </c>
       <c r="S20" s="5">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="39"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
@@ -4874,11 +4883,11 @@
       </c>
       <c r="S21" s="5">
         <f t="shared" si="1"/>
-        <v>-1.2894160787186373E-3</v>
+        <v>-3.8839657198740658E-3</v>
       </c>
     </row>
     <row r="22" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="39"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="10" t="s">
         <v>19</v>
       </c>
@@ -4930,11 +4939,11 @@
       </c>
       <c r="S22" s="5">
         <f t="shared" si="1"/>
-        <v>-9.9999999999544897E-6</v>
+        <v>1.0000100000954499E-5</v>
       </c>
     </row>
     <row r="23" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="36" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -4988,7 +4997,7 @@
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
@@ -5038,12 +5047,12 @@
         <v>248</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" ref="S24" si="4">(Q24-P24)/P24</f>
-        <v>1.2552301255230125E-2</v>
+        <f t="shared" ref="S24" si="4">(R24-Q24)/Q24</f>
+        <v>2.4793388429752067E-2</v>
       </c>
     </row>
     <row r="25" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="39"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
@@ -5094,11 +5103,11 @@
       </c>
       <c r="S25" s="5">
         <f t="shared" si="1"/>
-        <v>0.12903225806451613</v>
+        <v>2.3809523809523808E-2</v>
       </c>
     </row>
     <row r="26" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="39"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
@@ -5149,11 +5158,11 @@
       </c>
       <c r="S26" s="5">
         <f t="shared" si="1"/>
-        <v>1.3849333838390925E-2</v>
+        <v>-7.1739426241417728E-2</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="39"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="10" t="s">
         <v>19</v>
       </c>
@@ -5205,11 +5214,11 @@
       </c>
       <c r="S27" s="5">
         <f t="shared" si="1"/>
-        <v>-2.0004400968233012E-5</v>
+        <v>-3.0007201728389306E-5</v>
       </c>
     </row>
     <row r="28" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="36" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -5263,7 +5272,7 @@
       <c r="S28" s="2"/>
     </row>
     <row r="29" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="39"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="2" t="s">
         <v>16</v>
       </c>
@@ -5317,7 +5326,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="39"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="2" t="s">
         <v>17</v>
       </c>
@@ -5371,7 +5380,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="39"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="2" t="s">
         <v>18</v>
       </c>
@@ -5422,11 +5431,11 @@
       </c>
       <c r="S31" s="5">
         <f t="shared" si="1"/>
-        <v>9.1488773154772121E-2</v>
+        <v>8.438383458810883E-2</v>
       </c>
     </row>
     <row r="32" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="39"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="10" t="s">
         <v>19</v>
       </c>
@@ -5482,7 +5491,7 @@
       </c>
     </row>
     <row r="33" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="36" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -5536,7 +5545,7 @@
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="39"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="2" t="s">
         <v>16</v>
       </c>
@@ -5586,12 +5595,12 @@
         <v>471</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" ref="S34" si="5">(Q34-P34)/P34</f>
-        <v>4.6666666666666669E-2</v>
+        <f t="shared" ref="S34" si="5">(R34-Q34)/Q34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="39"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
@@ -5642,11 +5651,11 @@
       </c>
       <c r="S35" s="5">
         <f t="shared" si="1"/>
-        <v>2.1739130434782608E-2</v>
+        <v>5.3191489361702126E-3</v>
       </c>
     </row>
     <row r="36" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="39"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
@@ -5697,11 +5706,11 @@
       </c>
       <c r="S36" s="5">
         <f t="shared" si="1"/>
-        <v>4.062645371375407E-2</v>
+        <v>-6.5699462212649518E-3</v>
       </c>
     </row>
     <row r="37" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="39"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="10" t="s">
         <v>19</v>
       </c>
@@ -5753,11 +5762,11 @@
       </c>
       <c r="S37" s="5">
         <f t="shared" si="1"/>
-        <v>3.0051989942575146E-5</v>
+        <v>-2.0034057898447364E-5</v>
       </c>
     </row>
     <row r="38" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -5811,7 +5820,7 @@
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="39"/>
+      <c r="B39" s="40"/>
       <c r="C39" s="2" t="s">
         <v>16</v>
       </c>
@@ -5861,12 +5870,12 @@
         <v>280</v>
       </c>
       <c r="S39" s="5">
-        <f t="shared" ref="S39" si="6">(Q39-P39)/P39</f>
-        <v>-0.20498614958448755</v>
+        <f t="shared" ref="S39" si="6">(R39-Q39)/Q39</f>
+        <v>-2.4390243902439025E-2</v>
       </c>
     </row>
     <row r="40" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="39"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
@@ -5917,11 +5926,11 @@
       </c>
       <c r="S40" s="5">
         <f t="shared" si="1"/>
-        <v>-0.15901060070671377</v>
+        <v>-2.9411764705882353E-2</v>
       </c>
     </row>
     <row r="41" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="39"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="2" t="s">
         <v>18</v>
       </c>
@@ -5972,11 +5981,11 @@
       </c>
       <c r="S41" s="5">
         <f t="shared" si="1"/>
-        <v>4.2186397682412453E-2</v>
+        <v>-2.1589624305970632E-2</v>
       </c>
     </row>
     <row r="42" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="39"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="10" t="s">
         <v>19</v>
       </c>
@@ -6028,7 +6037,7 @@
       </c>
       <c r="S42" s="5">
         <f t="shared" si="1"/>
-        <v>4.1087104661885341E-4</v>
+        <v>1.0017129291042171E-5</v>
       </c>
     </row>
   </sheetData>

--- a/质量数据.xlsx
+++ b/质量数据.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
-    <sheet name="spec version" sheetId="2" r:id="rId2"/>
+    <sheet name="spec version 1" sheetId="2" r:id="rId2"/>
     <sheet name="spec version top10" sheetId="3" r:id="rId3"/>
+    <sheet name="spec version 2" sheetId="4" r:id="rId4"/>
+    <sheet name="spec version 3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="109">
   <si>
     <t>9月第3周</t>
   </si>
@@ -288,6 +290,168 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>2.14.8</t>
+  </si>
+  <si>
+    <t>2.15.44</t>
+  </si>
+  <si>
+    <t>2.17.132</t>
+  </si>
+  <si>
+    <t>2.2.12</t>
+  </si>
+  <si>
+    <t>2.12.6</t>
+  </si>
+  <si>
+    <t>2.6.8</t>
+  </si>
+  <si>
+    <t>2.2.30</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>0.7.20</t>
+  </si>
+  <si>
+    <t>2.14.9</t>
+  </si>
+  <si>
+    <t>2.17.134</t>
+  </si>
+  <si>
+    <t>2.0.30</t>
+  </si>
+  <si>
+    <t>2.16.6</t>
+  </si>
+  <si>
+    <t>2.9.41</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>2.12.1</t>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月第</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月第</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月第</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -465,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -527,6 +691,9 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -841,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +1098,7 @@
         <v>13</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>14</v>
@@ -939,7 +1106,7 @@
     </row>
     <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -991,13 +1158,13 @@
         <v>1746</v>
       </c>
       <c r="S3" s="5">
-        <f>(Q3-P3)/P3</f>
-        <v>5.8038305281485777E-2</v>
+        <f t="shared" ref="S3:S34" si="0">(R3-Q3)/Q3</f>
+        <v>-4.2238069116840374E-2</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="37"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1047,13 +1214,13 @@
         <v>1372</v>
       </c>
       <c r="S4" s="5">
-        <f t="shared" ref="S4:S34" si="0">(Q4-P4)/P4</f>
-        <v>8.8183421516754845E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.20881057268722467</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
-      <c r="B5" s="38"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1104,12 +1271,12 @@
       </c>
       <c r="S5" s="5">
         <f t="shared" si="0"/>
-        <v>3.533345215908943E-4</v>
+        <v>-1.420019765382575E-3</v>
       </c>
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:31" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
@@ -1161,12 +1328,12 @@
       </c>
       <c r="S6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.100561286255425E-4</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1219,13 +1386,13 @@
       </c>
       <c r="S7" s="5">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="V7" s="27"/>
     </row>
     <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
-      <c r="B8" s="37"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1276,13 +1443,13 @@
       </c>
       <c r="S8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="V8" s="27"/>
     </row>
     <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="37"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1333,13 +1500,13 @@
       </c>
       <c r="S9" s="5">
         <f t="shared" si="0"/>
-        <v>-1.4447746077139048E-3</v>
+        <v>-1.980116793329505E-3</v>
       </c>
       <c r="V9" s="27"/>
     </row>
     <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
-      <c r="B10" s="37"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1391,7 +1558,7 @@
       </c>
       <c r="S10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.0001200143971767E-5</v>
       </c>
       <c r="V10" s="27"/>
       <c r="X10" s="21"/>
@@ -1405,7 +1572,7 @@
     </row>
     <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1458,14 +1625,14 @@
       </c>
       <c r="S11" s="5">
         <f t="shared" si="0"/>
-        <v>2.3809523809523808E-2</v>
+        <v>4.3189368770764118E-2</v>
       </c>
       <c r="V11" s="27"/>
       <c r="W11" s="21"/>
     </row>
     <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
-      <c r="B12" s="37"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1516,13 +1683,13 @@
       </c>
       <c r="S12" s="5">
         <f t="shared" si="0"/>
-        <v>-2.0161290322580645E-2</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="W12" s="21"/>
     </row>
     <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
-      <c r="B13" s="37"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1573,13 +1740,13 @@
       </c>
       <c r="S13" s="5">
         <f t="shared" si="0"/>
-        <v>7.3080743578827871E-3</v>
+        <v>3.8144570087938405E-3</v>
       </c>
       <c r="W13" s="21"/>
     </row>
     <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
-      <c r="B14" s="37"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
@@ -1631,13 +1798,13 @@
       </c>
       <c r="S14" s="5">
         <f t="shared" si="0"/>
-        <v>3.0040554748885487E-5</v>
+        <v>-4.0052869788160375E-5</v>
       </c>
       <c r="W14" s="21"/>
     </row>
     <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1690,13 +1857,13 @@
       </c>
       <c r="S15" s="5">
         <f t="shared" si="0"/>
-        <v>4.784688995215311E-2</v>
+        <v>-9.1324200913242004E-3</v>
       </c>
       <c r="W15" s="21"/>
     </row>
     <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="37"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1747,13 +1914,13 @@
       </c>
       <c r="S16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.7872340425531915E-2</v>
       </c>
       <c r="W16" s="21"/>
     </row>
     <row r="17" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="37"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1804,12 +1971,12 @@
       </c>
       <c r="S17" s="5">
         <f t="shared" si="0"/>
-        <v>5.739163531104664E-3</v>
+        <v>2.0847165051122028E-3</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="37"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="10" t="s">
         <v>19</v>
       </c>
@@ -1861,11 +2028,11 @@
       </c>
       <c r="S18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.0006201922616012E-5</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1918,11 +2085,11 @@
       </c>
       <c r="S19" s="5">
         <f t="shared" si="0"/>
-        <v>7.168894289185905E-2</v>
+        <v>0.44217687074829931</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1972,12 +2139,12 @@
         <v>1039</v>
       </c>
       <c r="S20" s="5">
-        <f>(Q20-P20)/P20</f>
-        <v>0.10526315789473684</v>
+        <f t="shared" si="0"/>
+        <v>0.37433862433862436</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="37"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2028,11 +2195,11 @@
       </c>
       <c r="S21" s="5">
         <f t="shared" si="0"/>
-        <v>3.4825152164111813E-2</v>
+        <v>3.2354633055471406E-2</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="37"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="10" t="s">
         <v>19</v>
       </c>
@@ -2084,12 +2251,12 @@
       </c>
       <c r="S22" s="5">
         <f t="shared" si="0"/>
-        <v>-4.0024014408574128E-5</v>
+        <v>-2.2014089016970657E-4</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="39" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2142,12 +2309,12 @@
       </c>
       <c r="S23" s="5">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>-0.11764705882352941</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="37"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2198,12 +2365,12 @@
       </c>
       <c r="S24" s="5">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="37"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
@@ -2254,12 +2421,12 @@
       </c>
       <c r="S25" s="5">
         <f t="shared" si="0"/>
-        <v>7.576892957442212E-2</v>
+        <v>7.0833973950668802E-2</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
-      <c r="B26" s="37"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="10" t="s">
         <v>19</v>
       </c>
@@ -2316,7 +2483,7 @@
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2369,12 +2536,12 @@
       </c>
       <c r="S27" s="5">
         <f t="shared" si="0"/>
-        <v>6.3492063492063489E-2</v>
+        <v>-3.3921302578018994E-2</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
-      <c r="B28" s="37"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2425,12 +2592,12 @@
       </c>
       <c r="S28" s="5">
         <f t="shared" si="0"/>
-        <v>3.2653061224489799E-2</v>
+        <v>1.976284584980237E-3</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
-      <c r="B29" s="37"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
@@ -2481,12 +2648,12 @@
       </c>
       <c r="S29" s="5">
         <f t="shared" si="0"/>
-        <v>3.835901143089504E-2</v>
+        <v>-6.819566300899518E-3</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
-      <c r="B30" s="37"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="10" t="s">
         <v>19</v>
       </c>
@@ -2538,12 +2705,12 @@
       </c>
       <c r="S30" s="5">
         <f t="shared" si="0"/>
-        <v>1.0020140482323961E-5</v>
+        <v>-2.0040080160340684E-5</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="39" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2596,12 +2763,12 @@
       </c>
       <c r="S31" s="5">
         <f t="shared" si="0"/>
-        <v>-0.17084282460136674</v>
+        <v>-3.5714285714285712E-2</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
-      <c r="B32" s="37"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
@@ -2652,12 +2819,12 @@
       </c>
       <c r="S32" s="5">
         <f t="shared" si="0"/>
-        <v>-0.14409221902017291</v>
+        <v>-3.3670033670033669E-2</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
-      <c r="B33" s="37"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="2" t="s">
         <v>18</v>
       </c>
@@ -2708,12 +2875,12 @@
       </c>
       <c r="S33" s="5">
         <f t="shared" si="0"/>
-        <v>3.9718562363051706E-2</v>
+        <v>-2.2148932239457533E-2</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
-      <c r="B34" s="37"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="10" t="s">
         <v>19</v>
       </c>
@@ -2765,7 +2932,7 @@
       </c>
       <c r="S34" s="5">
         <f t="shared" si="0"/>
-        <v>4.4108949104287181E-4</v>
+        <v>2.004068258566891E-5</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2794,7 +2961,7 @@
         <f>SUM(Q5,Q9,Q13,Q21)</f>
         <v>3856029</v>
       </c>
-      <c r="R36" s="35">
+      <c r="R36" s="38">
         <f>SUM(R5,R9,R13,R21)</f>
         <v>3891060</v>
       </c>
@@ -2821,7 +2988,7 @@
         <f t="shared" si="2"/>
         <v>4777212</v>
       </c>
-      <c r="R37" s="35">
+      <c r="R37" s="38">
         <f t="shared" ref="R37" si="3">SUM(R5,R9,R13,R17,R21,R25)</f>
         <v>4836074</v>
       </c>
@@ -3763,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3833,14 +4000,14 @@
         <v>30</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="39" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -3894,7 +4061,7 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
@@ -3949,7 +4116,7 @@
       </c>
     </row>
     <row r="5" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
@@ -4004,7 +4171,7 @@
       </c>
     </row>
     <row r="6" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
@@ -4059,7 +4226,7 @@
       </c>
     </row>
     <row r="7" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
@@ -4114,7 +4281,7 @@
       </c>
     </row>
     <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -4168,7 +4335,7 @@
       <c r="S8" s="2"/>
     </row>
     <row r="9" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
@@ -4223,7 +4390,7 @@
       </c>
     </row>
     <row r="10" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
@@ -4278,7 +4445,7 @@
       </c>
     </row>
     <row r="11" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
@@ -4333,7 +4500,7 @@
       </c>
     </row>
     <row r="12" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
@@ -4390,7 +4557,7 @@
       <c r="Y12" s="13"/>
     </row>
     <row r="13" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -4445,7 +4612,7 @@
       <c r="Y13" s="13"/>
     </row>
     <row r="14" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
@@ -4502,7 +4669,7 @@
       <c r="Y14" s="13"/>
     </row>
     <row r="15" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
@@ -4557,7 +4724,7 @@
       </c>
     </row>
     <row r="16" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
@@ -4612,7 +4779,7 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="10" t="s">
         <v>19</v>
       </c>
@@ -4668,7 +4835,7 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -4722,7 +4889,7 @@
       <c r="S18" s="2"/>
     </row>
     <row r="19" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="40"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
@@ -4777,7 +4944,7 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
@@ -4832,7 +4999,7 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
@@ -4887,7 +5054,7 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="40"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="10" t="s">
         <v>19</v>
       </c>
@@ -4943,7 +5110,7 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="39" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -4997,7 +5164,7 @@
       <c r="S23" s="2"/>
     </row>
     <row r="24" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="40"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
@@ -5052,7 +5219,7 @@
       </c>
     </row>
     <row r="25" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="40"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
@@ -5107,7 +5274,7 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="40"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
@@ -5162,7 +5329,7 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="40"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="10" t="s">
         <v>19</v>
       </c>
@@ -5218,7 +5385,7 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="39" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -5272,7 +5439,7 @@
       <c r="S28" s="2"/>
     </row>
     <row r="29" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="40"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="2" t="s">
         <v>16</v>
       </c>
@@ -5326,7 +5493,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="40"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="2" t="s">
         <v>17</v>
       </c>
@@ -5380,7 +5547,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="40"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="2" t="s">
         <v>18</v>
       </c>
@@ -5435,7 +5602,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="40"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="10" t="s">
         <v>19</v>
       </c>
@@ -5491,7 +5658,7 @@
       </c>
     </row>
     <row r="33" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -5545,7 +5712,7 @@
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="40"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="2" t="s">
         <v>16</v>
       </c>
@@ -5600,7 +5767,7 @@
       </c>
     </row>
     <row r="35" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="40"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
@@ -5655,7 +5822,7 @@
       </c>
     </row>
     <row r="36" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="40"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
@@ -5710,7 +5877,7 @@
       </c>
     </row>
     <row r="37" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="40"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="10" t="s">
         <v>19</v>
       </c>
@@ -5766,7 +5933,7 @@
       </c>
     </row>
     <row r="38" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="39" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -5820,7 +5987,7 @@
       <c r="S38" s="2"/>
     </row>
     <row r="39" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="40"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="2" t="s">
         <v>16</v>
       </c>
@@ -5875,7 +6042,7 @@
       </c>
     </row>
     <row r="40" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="40"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
@@ -5930,7 +6097,7 @@
       </c>
     </row>
     <row r="41" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="40"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="2" t="s">
         <v>18</v>
       </c>
@@ -5985,7 +6152,7 @@
       </c>
     </row>
     <row r="42" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="40"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="10" t="s">
         <v>19</v>
       </c>
@@ -6648,4 +6815,942 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="37" customWidth="1"/>
+    <col min="2" max="2" width="11" style="37" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="11" style="36" customWidth="1"/>
+    <col min="6" max="10" width="9" style="35" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="43"/>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>300</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="43"/>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4">
+        <v>222</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="43"/>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
+        <v>149425</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="43"/>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.99851000000000001</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="43"/>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="43"/>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="43"/>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4">
+        <v>21496</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="43"/>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="43"/>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="H14" s="14"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="43"/>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="43"/>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9423</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="43"/>
+      <c r="C17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.99914999999999998</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="43"/>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4">
+        <v>58</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="43"/>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4">
+        <v>50</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="43"/>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4">
+        <v>72604</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="43"/>
+      <c r="C22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.99931000000000003</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="43"/>
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="43"/>
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="43"/>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="4">
+        <v>188955</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="43"/>
+      <c r="C27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="43"/>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="43"/>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="43"/>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="4">
+        <v>93174</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="43"/>
+      <c r="C32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="43"/>
+      <c r="C34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="4">
+        <v>55</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="43"/>
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="4">
+        <v>43</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="43"/>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="4">
+        <v>11063</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="43"/>
+      <c r="C37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.99611000000000005</v>
+      </c>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="43"/>
+      <c r="C39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="4">
+        <v>53</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="43"/>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="4">
+        <v>41</v>
+      </c>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="43"/>
+      <c r="C41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3965</v>
+      </c>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="43"/>
+      <c r="C42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0.98965999999999998</v>
+      </c>
+      <c r="E42" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="37" customWidth="1"/>
+    <col min="2" max="2" width="11" style="37" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="11" style="36" customWidth="1"/>
+    <col min="6" max="10" width="9" style="35" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="43"/>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>138</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="43"/>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4">
+        <v>111</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="43"/>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
+        <v>113166</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="43"/>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.99902000000000002</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="43"/>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="43"/>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="43"/>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6473</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="43"/>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.99985000000000002</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="43"/>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="H14" s="14"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="43"/>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="43"/>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3013</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="43"/>
+      <c r="C17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.99534999999999996</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="43"/>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4">
+        <v>59</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="43"/>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4">
+        <v>55</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="43"/>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4">
+        <v>38926</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="43"/>
+      <c r="C22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.99858999999999998</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="43"/>
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="4">
+        <v>315</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="43"/>
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="4">
+        <v>222</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="43"/>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="4">
+        <v>97611</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="43"/>
+      <c r="C27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.99773000000000001</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="43"/>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="4">
+        <v>15</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="43"/>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="43"/>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="4">
+        <v>410</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="43"/>
+      <c r="C32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.99024000000000001</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="43"/>
+      <c r="C34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="4">
+        <v>31</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="43"/>
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="4">
+        <v>21</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="43"/>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="4">
+        <v>7390</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="43"/>
+      <c r="C37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.99716000000000005</v>
+      </c>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="43"/>
+      <c r="C39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="4">
+        <v>3</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="43"/>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="43"/>
+      <c r="C41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="4">
+        <v>769</v>
+      </c>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="43"/>
+      <c r="C42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="E42" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/质量数据.xlsx
+++ b/质量数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11820" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE311"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6822,7 +6822,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7290,7 +7290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/质量数据.xlsx
+++ b/质量数据.xlsx
@@ -13,17 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
-    <sheet name="spec version 1" sheetId="2" r:id="rId2"/>
+    <sheet name="most version" sheetId="2" r:id="rId2"/>
     <sheet name="spec version top10" sheetId="3" r:id="rId3"/>
-    <sheet name="spec version 2" sheetId="4" r:id="rId4"/>
-    <sheet name="spec version 3" sheetId="5" r:id="rId5"/>
+    <sheet name="latest stable version" sheetId="4" r:id="rId4"/>
+    <sheet name="second most version" sheetId="5" r:id="rId5"/>
+    <sheet name="third most version" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="120">
   <si>
     <t>9月第3周</t>
   </si>
@@ -67,6 +68,15 @@
     <t>12月第4周</t>
   </si>
   <si>
+    <t>12月第5周</t>
+  </si>
+  <si>
+    <t>2017年1月第1周</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>环比</t>
   </si>
   <si>
@@ -157,12 +167,18 @@
     <t>2.2.31</t>
   </si>
   <si>
+    <t>3.0.1</t>
+  </si>
+  <si>
     <t>稳定版2.12.2</t>
   </si>
   <si>
     <t>2.12.2</t>
   </si>
   <si>
+    <t>3.1.0</t>
+  </si>
+  <si>
     <t>crash概率</t>
   </si>
   <si>
@@ -178,72 +194,72 @@
     <t>TOP 2</t>
   </si>
   <si>
+    <t>2.12.3-rule_mgr|11</t>
+  </si>
+  <si>
+    <t>2.16.3-tgp-plugin|6</t>
+  </si>
+  <si>
+    <t>TOP 3</t>
+  </si>
+  <si>
     <t>2.12.3-etm|6</t>
   </si>
   <si>
-    <t>2.16.3-tgp-plugin|6</t>
-  </si>
-  <si>
-    <t>TOP 3</t>
-  </si>
-  <si>
-    <t>2.12.3-rule_mgr|11</t>
+    <t>2.16.3-minidlna|11</t>
+  </si>
+  <si>
+    <t>TOP 4</t>
+  </si>
+  <si>
+    <t>2.12.3-sysapihttpd|6</t>
   </si>
   <si>
     <t>2.16.3-etm|11</t>
   </si>
   <si>
-    <t>TOP 4</t>
+    <t>TOP 5</t>
+  </si>
+  <si>
+    <t>2.12.3-etm|11</t>
+  </si>
+  <si>
+    <t>2.16.3-trafficd|11</t>
+  </si>
+  <si>
+    <t>TOP 6</t>
+  </si>
+  <si>
+    <t>2.12.3-etm|10</t>
+  </si>
+  <si>
+    <t>2.16.3-P2PEngine|11</t>
+  </si>
+  <si>
+    <t>TOP 7</t>
+  </si>
+  <si>
+    <t>2.12.3-iqiyi_server|11</t>
+  </si>
+  <si>
+    <t>2.16.3-indexservice|6</t>
+  </si>
+  <si>
+    <t>TOP 8</t>
+  </si>
+  <si>
+    <t>2.12.3-plugincenter|10</t>
+  </si>
+  <si>
+    <t>2.16.3-cachecenter|11</t>
+  </si>
+  <si>
+    <t>TOP 9</t>
   </si>
   <si>
     <t>2.12.3-ebit_plugin|6</t>
   </si>
   <si>
-    <t>2.16.3-minidlna|11</t>
-  </si>
-  <si>
-    <t>TOP 5</t>
-  </si>
-  <si>
-    <t>2.12.3-sysapihttpd|6</t>
-  </si>
-  <si>
-    <t>2.16.3-trafficd|11</t>
-  </si>
-  <si>
-    <t>TOP 6</t>
-  </si>
-  <si>
-    <t>2.12.3-etm|11</t>
-  </si>
-  <si>
-    <t>2.16.3-P2PEngine|11</t>
-  </si>
-  <si>
-    <t>TOP 7</t>
-  </si>
-  <si>
-    <t>2.12.3-etm|10</t>
-  </si>
-  <si>
-    <t>2.16.3-indexservice|6</t>
-  </si>
-  <si>
-    <t>TOP 8</t>
-  </si>
-  <si>
-    <t>2.12.3-iqiyi_server|11</t>
-  </si>
-  <si>
-    <t>2.16.3-cachecenter|11</t>
-  </si>
-  <si>
-    <t>TOP 9</t>
-  </si>
-  <si>
-    <t>2.12.3-plugincenter|10</t>
-  </si>
-  <si>
     <t>2.16.3-thread_pool|11</t>
   </si>
   <si>
@@ -274,39 +290,69 @@
     <t>2.14.6-etm|6</t>
   </si>
   <si>
+    <t>2.14.6-smart_speed|11</t>
+  </si>
+  <si>
     <t>2.14.6-sysapihttpd|6</t>
   </si>
   <si>
-    <t>2.14.6-smart_speed|11</t>
-  </si>
-  <si>
-    <t>2.16.3-iqiyi_server|6</t>
+    <t>2.16.3-sec_clt|6</t>
+  </si>
+  <si>
+    <t>2.14.6-rmonitor|11</t>
+  </si>
+  <si>
+    <t>2.16.3-qqiot|11</t>
   </si>
   <si>
     <t>2.14.6-etm|11</t>
   </si>
   <si>
-    <t>2.14.6-rmonitor|11</t>
-  </si>
-  <si>
     <t>`</t>
   </si>
   <si>
+    <t>2.11.110</t>
+  </si>
+  <si>
+    <t>2.15.44</t>
+  </si>
+  <si>
+    <t>2.17.134</t>
+  </si>
+  <si>
+    <t>2.5.69</t>
+  </si>
+  <si>
+    <t>2.15.131</t>
+  </si>
+  <si>
+    <t>2.9.41</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
     <t>2.14.8</t>
   </si>
   <si>
-    <t>2.15.44</t>
+    <t>2.14.10</t>
   </si>
   <si>
     <t>2.17.132</t>
   </si>
   <si>
+    <t>2.18.4</t>
+  </si>
+  <si>
     <t>2.2.12</t>
   </si>
   <si>
     <t>2.12.6</t>
   </si>
   <si>
+    <t>2.16.8</t>
+  </si>
+  <si>
     <t>2.6.8</t>
   </si>
   <si>
@@ -322,7 +368,7 @@
     <t>2.14.9</t>
   </si>
   <si>
-    <t>2.17.134</t>
+    <t>2.10.15</t>
   </si>
   <si>
     <t>2.0.30</t>
@@ -331,17 +377,35 @@
     <t>2.16.6</t>
   </si>
   <si>
-    <t>2.9.41</t>
-  </si>
-  <si>
-    <t>3.1.1</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>2.12.1</t>
   </si>
   <si>
     <r>
-      <t>12</t>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -362,121 +426,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月第</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月第</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月第</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -629,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -691,6 +641,15 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1006,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE311"/>
+  <dimension ref="A1:AG311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,19 +977,20 @@
     <col min="2" max="2" width="11" style="15" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="15" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="15" hidden="1" customWidth="1"/>
-    <col min="5" max="13" width="18.25" style="15" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.25" style="15" customWidth="1"/>
-    <col min="15" max="15" width="18.25" style="23" customWidth="1"/>
-    <col min="16" max="16" width="18.25" style="25" customWidth="1"/>
-    <col min="17" max="17" width="18.25" style="28" customWidth="1"/>
+    <col min="5" max="14" width="18.25" style="15" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.25" style="23" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18.25" style="25" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="18.25" style="28" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="18.25" style="32" customWidth="1"/>
-    <col min="19" max="19" width="17" style="8" customWidth="1"/>
-    <col min="20" max="21" width="9" style="15" customWidth="1"/>
-    <col min="22" max="22" width="15.125" style="15" customWidth="1"/>
-    <col min="23" max="25" width="12.25" style="15" customWidth="1"/>
+    <col min="19" max="19" width="18.25" style="39" customWidth="1"/>
+    <col min="20" max="20" width="18.25" style="42" customWidth="1"/>
+    <col min="21" max="21" width="17" style="8" customWidth="1"/>
+    <col min="22" max="23" width="9" style="15" customWidth="1"/>
+    <col min="24" max="24" width="15.125" style="15" customWidth="1"/>
+    <col min="25" max="27" width="12.25" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1049,9 +1009,11 @@
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
       <c r="R1" s="17"/>
-      <c r="S1" s="12"/>
-    </row>
-    <row r="2" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="12"/>
+    </row>
+    <row r="2" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1098,19 +1060,25 @@
         <v>13</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="S2" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
-      <c r="B3" s="39" t="s">
-        <v>15</v>
+      <c r="B3" s="48" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
         <v>1088</v>
@@ -1157,16 +1125,22 @@
       <c r="R3" s="4">
         <v>1746</v>
       </c>
-      <c r="S3" s="5">
-        <f t="shared" ref="S3:S34" si="0">(R3-Q3)/Q3</f>
-        <v>-4.2238069116840374E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="4">
+        <v>2531</v>
+      </c>
+      <c r="T3" s="4">
+        <v>1797</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" ref="U3:U34" si="0">(T3-S3)/S3</f>
+        <v>-0.29000395100750692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="40"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4">
         <v>671</v>
@@ -1213,16 +1187,22 @@
       <c r="R4" s="4">
         <v>1372</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
+        <v>1589</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1234</v>
+      </c>
+      <c r="U4" s="5">
         <f t="shared" si="0"/>
-        <v>0.20881057268722467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-0.22341095028319699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
-      <c r="B5" s="41"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4">
         <v>2219864</v>
@@ -1269,16 +1249,22 @@
       <c r="R5" s="4">
         <v>2224974</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
+        <v>2216253</v>
+      </c>
+      <c r="T5" s="4">
+        <v>2217647</v>
+      </c>
+      <c r="U5" s="5">
         <f t="shared" si="0"/>
-        <v>-1.420019765382575E-3</v>
-      </c>
-      <c r="T5" s="15"/>
-    </row>
-    <row r="6" spans="1:31" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
+        <v>6.2898956030741976E-4</v>
+      </c>
+      <c r="V5" s="15"/>
+    </row>
+    <row r="6" spans="1:33" s="8" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="51"/>
       <c r="C6" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" s="11">
         <f>(1-D4/D5)</f>
@@ -1326,18 +1312,24 @@
       <c r="R6" s="11">
         <v>0.99938000000000005</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="11">
+        <v>0.99927999999999995</v>
+      </c>
+      <c r="T6" s="11">
+        <v>0.99944</v>
+      </c>
+      <c r="U6" s="5">
         <f t="shared" si="0"/>
-        <v>-1.100561286255425E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.6011528300381174E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="B7" s="39" t="s">
-        <v>20</v>
+      <c r="B7" s="48" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4">
         <v>41</v>
@@ -1384,17 +1376,23 @@
       <c r="R7" s="4">
         <v>44</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="4">
+        <v>46</v>
+      </c>
+      <c r="T7" s="4">
+        <v>41</v>
+      </c>
+      <c r="U7" s="5">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="V7" s="27"/>
-    </row>
-    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-0.10869565217391304</v>
+      </c>
+      <c r="X7" s="27"/>
+    </row>
+    <row r="8" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
-      <c r="B8" s="40"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4">
         <v>36</v>
@@ -1441,17 +1439,23 @@
       <c r="R8" s="4">
         <v>36</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="4">
+        <v>36</v>
+      </c>
+      <c r="T8" s="4">
+        <v>34</v>
+      </c>
+      <c r="U8" s="5">
         <f t="shared" si="0"/>
-        <v>0.16129032258064516</v>
-      </c>
-      <c r="V8" s="27"/>
-    </row>
-    <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-5.5555555555555552E-2</v>
+      </c>
+      <c r="X8" s="27"/>
+    </row>
+    <row r="9" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="40"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4">
         <v>272130</v>
@@ -1498,17 +1502,23 @@
       <c r="R9" s="4">
         <v>267635</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="4">
+        <v>266737</v>
+      </c>
+      <c r="T9" s="4">
+        <v>267103</v>
+      </c>
+      <c r="U9" s="5">
         <f t="shared" si="0"/>
-        <v>-1.980116793329505E-3</v>
-      </c>
-      <c r="V9" s="27"/>
-    </row>
-    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.3721380985765004E-3</v>
+      </c>
+      <c r="X9" s="27"/>
+    </row>
+    <row r="10" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
-      <c r="B10" s="40"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" s="11">
         <f>(1-D8/D9)</f>
@@ -1556,27 +1566,33 @@
       <c r="R10" s="11">
         <v>0.99987000000000004</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="11">
+        <v>0.99987000000000004</v>
+      </c>
+      <c r="T10" s="11">
+        <v>0.99987000000000004</v>
+      </c>
+      <c r="U10" s="5">
         <f t="shared" si="0"/>
-        <v>-1.0001200143971767E-5</v>
-      </c>
-      <c r="V10" s="27"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="27"/>
       <c r="Z10" s="21"/>
       <c r="AA10" s="21"/>
       <c r="AB10" s="21"/>
       <c r="AC10" s="21"/>
       <c r="AD10" s="21"/>
       <c r="AE10" s="21"/>
-    </row>
-    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+    </row>
+    <row r="11" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
-      <c r="B11" s="39" t="s">
-        <v>21</v>
+      <c r="B11" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" s="20">
         <v>510</v>
@@ -1623,18 +1639,24 @@
       <c r="R11" s="4">
         <v>314</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="4">
+        <v>352</v>
+      </c>
+      <c r="T11" s="4">
+        <v>491</v>
+      </c>
+      <c r="U11" s="5">
         <f t="shared" si="0"/>
-        <v>4.3189368770764118E-2</v>
-      </c>
-      <c r="V11" s="27"/>
-      <c r="W11" s="21"/>
-    </row>
-    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.39488636363636365</v>
+      </c>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="21"/>
+    </row>
+    <row r="12" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
-      <c r="B12" s="40"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D12" s="20">
         <v>414</v>
@@ -1681,17 +1703,23 @@
       <c r="R12" s="4">
         <v>252</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="4">
+        <v>287</v>
+      </c>
+      <c r="T12" s="4">
+        <v>395</v>
+      </c>
+      <c r="U12" s="5">
         <f t="shared" si="0"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="W12" s="21"/>
-    </row>
-    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.37630662020905925</v>
+      </c>
+      <c r="Y12" s="21"/>
+    </row>
+    <row r="13" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
-      <c r="B13" s="40"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4">
         <v>163068</v>
@@ -1738,17 +1766,23 @@
       <c r="R13" s="4">
         <v>185265</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="4">
+        <v>185823</v>
+      </c>
+      <c r="T13" s="4">
+        <v>187658</v>
+      </c>
+      <c r="U13" s="5">
         <f t="shared" si="0"/>
-        <v>3.8144570087938405E-3</v>
-      </c>
-      <c r="W13" s="21"/>
-    </row>
-    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.8749885643865404E-3</v>
+      </c>
+      <c r="Y13" s="21"/>
+    </row>
+    <row r="14" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
-      <c r="B14" s="40"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D14" s="11">
         <f>(1-D12/D13)</f>
@@ -1796,19 +1830,25 @@
       <c r="R14" s="11">
         <v>0.99863999999999997</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="11">
+        <v>0.99846000000000001</v>
+      </c>
+      <c r="T14" s="11">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="U14" s="5">
         <f t="shared" si="0"/>
-        <v>-4.0052869788160375E-5</v>
-      </c>
-      <c r="W14" s="21"/>
-    </row>
-    <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-5.6086373014442733E-4</v>
+      </c>
+      <c r="Y14" s="21"/>
+    </row>
+    <row r="15" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="39" t="s">
-        <v>22</v>
+      <c r="B15" s="48" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D15" s="20">
         <v>412</v>
@@ -1855,17 +1895,23 @@
       <c r="R15" s="4">
         <v>217</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="4">
+        <v>197</v>
+      </c>
+      <c r="T15" s="4">
+        <v>234</v>
+      </c>
+      <c r="U15" s="5">
         <f t="shared" si="0"/>
-        <v>-9.1324200913242004E-3</v>
-      </c>
-      <c r="W15" s="21"/>
-    </row>
-    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.18781725888324874</v>
+      </c>
+      <c r="Y15" s="21"/>
+    </row>
+    <row r="16" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="40"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D16" s="20">
         <v>362</v>
@@ -1912,17 +1958,23 @@
       <c r="R16" s="4">
         <v>197</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S16" s="4">
+        <v>168</v>
+      </c>
+      <c r="T16" s="4">
+        <v>193</v>
+      </c>
+      <c r="U16" s="5">
         <f t="shared" si="0"/>
-        <v>4.7872340425531915E-2</v>
-      </c>
-      <c r="W16" s="21"/>
-    </row>
-    <row r="17" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.14880952380952381</v>
+      </c>
+      <c r="Y16" s="21"/>
+    </row>
+    <row r="17" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="40"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4">
         <v>467469</v>
@@ -1969,16 +2021,22 @@
       <c r="R17" s="4">
         <v>603736</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="4">
+        <v>600195</v>
+      </c>
+      <c r="T17" s="4">
+        <v>596777</v>
+      </c>
+      <c r="U17" s="5">
         <f t="shared" si="0"/>
-        <v>2.0847165051122028E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-5.6948158515149243E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
-      <c r="B18" s="40"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D18" s="11">
         <f>(1-D16/D17)</f>
@@ -2026,17 +2084,23 @@
       <c r="R18" s="11">
         <v>0.99966999999999995</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="11">
+        <v>0.99972000000000005</v>
+      </c>
+      <c r="T18" s="11">
+        <v>0.99968000000000001</v>
+      </c>
+      <c r="U18" s="5">
         <f t="shared" si="0"/>
-        <v>-2.0006201922616012E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39" t="s">
-        <v>23</v>
+        <v>-4.0011203136918338E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="48" t="s">
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" s="20">
         <v>451</v>
@@ -2083,15 +2147,21 @@
       <c r="R19" s="4">
         <v>1272</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="4">
+        <v>1758</v>
+      </c>
+      <c r="T19" s="4">
+        <v>2724</v>
+      </c>
+      <c r="U19" s="5">
         <f t="shared" si="0"/>
-        <v>0.44217687074829931</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
+        <v>0.54948805460750849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="49"/>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D20" s="20">
         <v>320</v>
@@ -2138,15 +2208,21 @@
       <c r="R20" s="4">
         <v>1039</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="4">
+        <v>1557</v>
+      </c>
+      <c r="T20" s="4">
+        <v>2068</v>
+      </c>
+      <c r="U20" s="5">
         <f t="shared" si="0"/>
-        <v>0.37433862433862436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
+        <v>0.32819524727039179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="49"/>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4">
         <v>726568</v>
@@ -2193,15 +2269,21 @@
       <c r="R21" s="4">
         <v>1213186</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="4">
+        <v>1247408</v>
+      </c>
+      <c r="T21" s="4">
+        <v>1290948</v>
+      </c>
+      <c r="U21" s="5">
         <f t="shared" si="0"/>
-        <v>3.2354633055471406E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="40"/>
+        <v>3.4904377717635292E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="49"/>
       <c r="C22" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D22" s="11">
         <f>(1-D20/D21)</f>
@@ -2249,18 +2331,24 @@
       <c r="R22" s="11">
         <v>0.99914000000000003</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="11">
+        <v>0.99875000000000003</v>
+      </c>
+      <c r="T22" s="11">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="U22" s="5">
         <f t="shared" si="0"/>
-        <v>-2.2014089016970657E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-3.5043804755952187E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="39" t="s">
-        <v>24</v>
+      <c r="B23" s="48" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D23" s="20">
         <v>2</v>
@@ -2307,16 +2395,22 @@
       <c r="R23" s="4">
         <v>15</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="4">
+        <v>18</v>
+      </c>
+      <c r="T23" s="4">
+        <v>5</v>
+      </c>
+      <c r="U23" s="5">
         <f t="shared" si="0"/>
-        <v>-0.11764705882352941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="40"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D24" s="20">
         <v>1</v>
@@ -2363,16 +2457,22 @@
       <c r="R24" s="4">
         <v>4</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="4">
+        <v>6</v>
+      </c>
+      <c r="T24" s="4">
+        <v>3</v>
+      </c>
+      <c r="U24" s="5">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="40"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4">
         <v>79058</v>
@@ -2419,16 +2519,22 @@
       <c r="R25" s="4">
         <v>341278</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S25" s="4">
+        <v>363088</v>
+      </c>
+      <c r="T25" s="4">
+        <v>387621</v>
+      </c>
+      <c r="U25" s="5">
         <f t="shared" si="0"/>
-        <v>7.0833973950668802E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.7567642004142253E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
-      <c r="B26" s="40"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D26" s="11">
         <f>(1-D24/D25)</f>
@@ -2476,18 +2582,24 @@
       <c r="R26" s="11">
         <v>0.99999000000000005</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="11">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="T26" s="11">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="U26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.0000200004065593E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="39" t="s">
-        <v>25</v>
+      <c r="B27" s="48" t="s">
+        <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D27" s="20">
         <v>799</v>
@@ -2534,16 +2646,22 @@
       <c r="R27" s="4">
         <v>712</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="4">
+        <v>648</v>
+      </c>
+      <c r="T27" s="4">
+        <v>616</v>
+      </c>
+      <c r="U27" s="5">
         <f t="shared" si="0"/>
-        <v>-3.3921302578018994E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-4.9382716049382713E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
-      <c r="B28" s="40"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D28" s="20">
         <v>579</v>
@@ -2590,16 +2708,22 @@
       <c r="R28" s="4">
         <v>507</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28" s="4">
+        <v>502</v>
+      </c>
+      <c r="T28" s="4">
+        <v>439</v>
+      </c>
+      <c r="U28" s="5">
         <f t="shared" si="0"/>
-        <v>1.976284584980237E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-0.12549800796812749</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
-      <c r="B29" s="40"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D29" s="4">
         <v>227185</v>
@@ -2646,16 +2770,22 @@
       <c r="R29" s="4">
         <v>251078</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="4">
+        <v>262261</v>
+      </c>
+      <c r="T29" s="4">
+        <v>272717</v>
+      </c>
+      <c r="U29" s="5">
         <f t="shared" si="0"/>
-        <v>-6.819566300899518E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.9868680436664236E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
-      <c r="B30" s="40"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D30" s="11">
         <f>(1-D28/D29)</f>
@@ -2703,18 +2833,24 @@
       <c r="R30" s="11">
         <v>0.99797999999999998</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="11">
+        <v>0.99809000000000003</v>
+      </c>
+      <c r="T30" s="11">
+        <v>0.99839</v>
+      </c>
+      <c r="U30" s="5">
         <f t="shared" si="0"/>
-        <v>-2.0040080160340684E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.0057409652432842E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
-      <c r="B31" s="39" t="s">
-        <v>26</v>
+      <c r="B31" s="48" t="s">
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D31" s="20">
         <v>401</v>
@@ -2761,16 +2897,22 @@
       <c r="R31" s="4">
         <v>351</v>
       </c>
-      <c r="S31" s="5">
+      <c r="S31" s="4">
+        <v>324</v>
+      </c>
+      <c r="T31" s="4">
+        <v>473</v>
+      </c>
+      <c r="U31" s="5">
         <f t="shared" si="0"/>
-        <v>-3.5714285714285712E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.45987654320987653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
-      <c r="B32" s="40"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D32" s="20">
         <v>334</v>
@@ -2817,16 +2959,22 @@
       <c r="R32" s="4">
         <v>287</v>
       </c>
-      <c r="S32" s="5">
+      <c r="S32" s="4">
+        <v>280</v>
+      </c>
+      <c r="T32" s="4">
+        <v>407</v>
+      </c>
+      <c r="U32" s="5">
         <f t="shared" si="0"/>
-        <v>-3.3670033670033669E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.45357142857142857</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
-      <c r="B33" s="40"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D33" s="4">
         <v>126798</v>
@@ -2873,16 +3021,22 @@
       <c r="R33" s="4">
         <v>142910</v>
       </c>
-      <c r="S33" s="5">
+      <c r="S33" s="4">
+        <v>155955</v>
+      </c>
+      <c r="T33" s="4">
+        <v>157373</v>
+      </c>
+      <c r="U33" s="5">
         <f t="shared" si="0"/>
-        <v>-2.2148932239457533E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.0923663877400529E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
-      <c r="B34" s="40"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D34" s="11">
         <f>(1-D32/D33)</f>
@@ -2930,20 +3084,26 @@
       <c r="R34" s="11">
         <v>0.99799000000000004</v>
       </c>
-      <c r="S34" s="5">
+      <c r="S34" s="11">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="T34" s="11">
+        <v>0.99741000000000002</v>
+      </c>
+      <c r="U34" s="5">
         <f t="shared" si="0"/>
-        <v>2.004068258566891E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-7.9142456421554537E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
     </row>
-    <row r="36" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="34" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N36" s="27">
         <f t="shared" ref="N36:O36" si="1">SUM(N5,N9,N13,N21)</f>
@@ -2965,12 +3125,20 @@
         <f>SUM(R5,R9,R13,R21)</f>
         <v>3891060</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S36" s="41">
+        <f>SUM(S5,S9,S13,S21)</f>
+        <v>3916221</v>
+      </c>
+      <c r="T36" s="47">
+        <f>SUM(T5,T9,T13,T21)</f>
+        <v>3963356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="34" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N37" s="15">
         <f>SUM(N5,N9,N13,N17,N21,N25)</f>
@@ -2989,31 +3157,39 @@
         <v>4777212</v>
       </c>
       <c r="R37" s="38">
-        <f t="shared" ref="R37" si="3">SUM(R5,R9,R13,R17,R21,R25)</f>
+        <f t="shared" ref="R37:S37" si="3">SUM(R5,R9,R13,R17,R21,R25)</f>
         <v>4836074</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S37" s="41">
+        <f t="shared" si="3"/>
+        <v>4879504</v>
+      </c>
+      <c r="T37" s="47">
+        <f t="shared" ref="T37" si="4">SUM(T5,T9,T13,T17,T21,T25)</f>
+        <v>4947754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
     </row>
-    <row r="39" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
     </row>
-    <row r="40" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
     </row>
-    <row r="41" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
     </row>
-    <row r="42" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
     </row>
-    <row r="48" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
     </row>
@@ -3922,16 +4098,16 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3940,21 +4116,22 @@
     <col min="2" max="2" width="11" style="7" customWidth="1"/>
     <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" style="7" hidden="1" customWidth="1"/>
-    <col min="5" max="13" width="14.625" style="7" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="14.625" style="24" customWidth="1"/>
-    <col min="16" max="16" width="14.625" style="26" customWidth="1"/>
-    <col min="17" max="17" width="14.625" style="29" customWidth="1"/>
+    <col min="5" max="14" width="14.625" style="7" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.625" style="24" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.625" style="26" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="14.625" style="29" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="14.625" style="33" customWidth="1"/>
-    <col min="19" max="19" width="11" style="8" customWidth="1"/>
-    <col min="20" max="24" width="9" style="9" customWidth="1"/>
-    <col min="25" max="25" width="12.625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="19.625" style="40" customWidth="1"/>
+    <col min="20" max="20" width="19.625" style="43" customWidth="1"/>
+    <col min="21" max="21" width="11" style="8" customWidth="1"/>
+    <col min="22" max="26" width="9" style="9" customWidth="1"/>
+    <col min="27" max="27" width="12.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="S1" s="12"/>
-    </row>
-    <row r="2" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U1" s="12"/>
+    </row>
+    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -3994,76 +4171,88 @@
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S2" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="S2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="T2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
+        <v>36</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="52"/>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4">
         <v>1.8</v>
@@ -4110,15 +4299,21 @@
       <c r="R4" s="4">
         <v>663</v>
       </c>
-      <c r="S4" s="5">
-        <f>(R4-Q4)/Q4</f>
-        <v>-0.11717709720372836</v>
-      </c>
-    </row>
-    <row r="5" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
+      <c r="S4" s="4">
+        <v>493</v>
+      </c>
+      <c r="T4" s="4">
+        <v>500</v>
+      </c>
+      <c r="U4" s="5">
+        <f>(T4-S4)/S4</f>
+        <v>1.4198782961460446E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="52"/>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -4165,15 +4360,21 @@
       <c r="R5" s="4">
         <v>499</v>
       </c>
-      <c r="S5" s="5">
-        <f t="shared" ref="S5:S7" si="0">(R5-Q5)/Q5</f>
-        <v>-6.3789868667917443E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43"/>
+      <c r="S5" s="4">
+        <v>363</v>
+      </c>
+      <c r="T5" s="4">
+        <v>351</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" ref="U5:U7" si="0">(T5-S5)/S5</f>
+        <v>-3.3057851239669422E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="52"/>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4">
         <v>1208033</v>
@@ -4220,15 +4421,21 @@
       <c r="R6" s="4">
         <v>1181533</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="4">
+        <v>866502</v>
+      </c>
+      <c r="T6" s="4">
+        <v>772098</v>
+      </c>
+      <c r="U6" s="5">
         <f t="shared" si="0"/>
-        <v>-9.5035818423989338E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
+        <v>-0.10894839250226773</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="52"/>
       <c r="C7" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="11">
         <v>0.99999000000000005</v>
@@ -4275,69 +4482,81 @@
       <c r="R7" s="11">
         <v>0.99958000000000002</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="11">
+        <v>0.99958000000000002</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0.99955000000000005</v>
+      </c>
+      <c r="U7" s="5">
         <f t="shared" si="0"/>
-        <v>-1.0004101681643965E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
-        <v>20</v>
+        <v>-3.0012605294198054E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
+        <v>38</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="52"/>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -4384,15 +4603,21 @@
       <c r="R9" s="4">
         <v>1</v>
       </c>
-      <c r="S9" s="5">
-        <f t="shared" ref="S9:S42" si="1">(R9-Q9)/Q9</f>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="5">
+        <f>(T9-S9)/S9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
+    <row r="10" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="52"/>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -4439,15 +4664,21 @@
       <c r="R10" s="4">
         <v>1</v>
       </c>
-      <c r="S10" s="5">
-        <f t="shared" si="1"/>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" ref="U10:U12" si="1">(T10-S10)/S10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
+    <row r="11" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="52"/>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4">
         <v>194833</v>
@@ -4494,15 +4725,21 @@
       <c r="R11" s="4">
         <v>203371</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="4">
+        <v>203073</v>
+      </c>
+      <c r="T11" s="4">
+        <v>203756</v>
+      </c>
+      <c r="U11" s="5">
         <f t="shared" si="1"/>
-        <v>-6.9774412445396605E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
+        <v>3.3633225490340914E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="52"/>
       <c r="C12" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D12" s="11">
         <f>(1-D10/D11)</f>
@@ -4550,71 +4787,83 @@
       <c r="R12" s="11">
         <v>1</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="11">
+        <v>1</v>
+      </c>
+      <c r="T12" s="11">
+        <v>1</v>
+      </c>
+      <c r="U12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="13"/>
-    </row>
-    <row r="13" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
-        <v>21</v>
+      <c r="AA12" s="13"/>
+    </row>
+    <row r="13" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" s="2"/>
-      <c r="Y13" s="13"/>
-    </row>
-    <row r="14" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
+        <v>38</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" s="2"/>
+      <c r="AA13" s="13"/>
+    </row>
+    <row r="14" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="52"/>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4">
         <v>38</v>
@@ -4661,17 +4910,23 @@
       <c r="R14" s="4">
         <v>57</v>
       </c>
-      <c r="S14" s="5">
-        <f t="shared" ref="S14" si="2">(R14-Q14)/Q14</f>
-        <v>0.21276595744680851</v>
-      </c>
-      <c r="V14" s="14"/>
-      <c r="Y14" s="13"/>
-    </row>
-    <row r="15" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
+      <c r="S14" s="4">
+        <v>52</v>
+      </c>
+      <c r="T14" s="4">
+        <v>47</v>
+      </c>
+      <c r="U14" s="5">
+        <f>(T14-S14)/S14</f>
+        <v>-9.6153846153846159E-2</v>
+      </c>
+      <c r="X14" s="14"/>
+      <c r="AA14" s="13"/>
+    </row>
+    <row r="15" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="52"/>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4">
         <v>27</v>
@@ -4718,15 +4973,21 @@
       <c r="R15" s="4">
         <v>36</v>
       </c>
-      <c r="S15" s="5">
-        <f t="shared" si="1"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
+      <c r="S15" s="4">
+        <v>33</v>
+      </c>
+      <c r="T15" s="4">
+        <v>34</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" ref="U15:U17" si="2">(T15-S15)/S15</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="52"/>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4">
         <v>134412</v>
@@ -4773,15 +5034,21 @@
       <c r="R16" s="4">
         <v>159805</v>
       </c>
-      <c r="S16" s="5">
-        <f t="shared" si="1"/>
-        <v>4.7216668552818543E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="43"/>
+      <c r="S16" s="4">
+        <v>160452</v>
+      </c>
+      <c r="T16" s="4">
+        <v>137818</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.14106399421633883</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="52"/>
       <c r="C17" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17" s="11">
         <f>(1-D15/D16)</f>
@@ -4829,69 +5096,81 @@
       <c r="R17" s="11">
         <v>0.99977000000000005</v>
       </c>
-      <c r="S17" s="5">
-        <f t="shared" si="1"/>
-        <v>-2.000420088209422E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
-        <v>22</v>
+      <c r="S17" s="11">
+        <v>0.99978999999999996</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0.99975000000000003</v>
+      </c>
+      <c r="U17" s="5">
+        <f t="shared" si="2"/>
+        <v>-4.0008401764299483E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48" t="s">
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
+        <v>40</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="52"/>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4">
         <v>12</v>
@@ -4938,15 +5217,21 @@
       <c r="R19" s="4">
         <v>1</v>
       </c>
-      <c r="S19" s="5">
-        <f t="shared" ref="S19" si="3">(R19-Q19)/Q19</f>
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="43"/>
+      <c r="S19" s="4">
+        <v>2</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
+      <c r="U19" s="5">
+        <f>(T19-S19)/S19</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="52"/>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4">
         <v>12</v>
@@ -4993,15 +5278,21 @@
       <c r="R20" s="4">
         <v>1</v>
       </c>
-      <c r="S20" s="5">
-        <f t="shared" si="1"/>
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
+      <c r="S20" s="4">
+        <v>2</v>
+      </c>
+      <c r="T20" s="4">
+        <v>1</v>
+      </c>
+      <c r="U20" s="5">
+        <f t="shared" ref="U20:U22" si="3">(T20-S20)/S20</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="52"/>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4">
         <v>236021</v>
@@ -5048,15 +5339,21 @@
       <c r="R21" s="4">
         <v>464465</v>
       </c>
-      <c r="S21" s="5">
-        <f t="shared" si="1"/>
-        <v>-3.8839657198740658E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="43"/>
+      <c r="S21" s="4">
+        <v>459294</v>
+      </c>
+      <c r="T21" s="4">
+        <v>454780</v>
+      </c>
+      <c r="U21" s="5">
+        <f t="shared" si="3"/>
+        <v>-9.8281275174506959E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="52"/>
       <c r="C22" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D22" s="11">
         <f>(1-D20/D21)</f>
@@ -5104,69 +5401,81 @@
       <c r="R22" s="11">
         <v>1</v>
       </c>
-      <c r="S22" s="5">
-        <f t="shared" si="1"/>
-        <v>1.0000100000954499E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
-        <v>23</v>
+      <c r="S22" s="11">
+        <v>1</v>
+      </c>
+      <c r="T22" s="11">
+        <v>1</v>
+      </c>
+      <c r="U22" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="48" t="s">
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="43"/>
+        <v>42</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U23" s="2"/>
+    </row>
+    <row r="24" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="52"/>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24" s="4">
         <v>7</v>
@@ -5213,15 +5522,21 @@
       <c r="R24" s="4">
         <v>248</v>
       </c>
-      <c r="S24" s="5">
-        <f t="shared" ref="S24" si="4">(R24-Q24)/Q24</f>
-        <v>2.4793388429752067E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="43"/>
+      <c r="S24" s="4">
+        <v>201</v>
+      </c>
+      <c r="T24" s="4">
+        <v>471</v>
+      </c>
+      <c r="U24" s="5">
+        <f>(T24-S24)/S24</f>
+        <v>1.3432835820895523</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="52"/>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D25" s="4">
         <v>7</v>
@@ -5268,15 +5583,21 @@
       <c r="R25" s="4">
         <v>215</v>
       </c>
-      <c r="S25" s="5">
-        <f t="shared" si="1"/>
-        <v>2.3809523809523808E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="43"/>
+      <c r="S25" s="4">
+        <v>168</v>
+      </c>
+      <c r="T25" s="4">
+        <v>155</v>
+      </c>
+      <c r="U25" s="5">
+        <f t="shared" ref="U25:U27" si="4">(T25-S25)/S25</f>
+        <v>-7.7380952380952384E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="52"/>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D26" s="4">
         <v>553681</v>
@@ -5323,15 +5644,21 @@
       <c r="R26" s="4">
         <v>804982</v>
       </c>
-      <c r="S26" s="5">
-        <f t="shared" si="1"/>
-        <v>-7.1739426241417728E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="43"/>
+      <c r="S26" s="4">
+        <v>592257</v>
+      </c>
+      <c r="T26" s="4">
+        <v>487081</v>
+      </c>
+      <c r="U26" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.17758506864418655</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="52"/>
       <c r="C27" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D27" s="11">
         <f>(1-D25/D26)</f>
@@ -5379,69 +5706,81 @@
       <c r="R27" s="11">
         <v>0.99973000000000001</v>
       </c>
-      <c r="S27" s="5">
-        <f t="shared" si="1"/>
-        <v>-3.0007201728389306E-5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
-        <v>24</v>
+      <c r="S27" s="11">
+        <v>0.99972000000000005</v>
+      </c>
+      <c r="T27" s="11">
+        <v>0.99968000000000001</v>
+      </c>
+      <c r="U27" s="5">
+        <f t="shared" si="4"/>
+        <v>-4.0011203136918338E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="48" t="s">
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S28" s="2"/>
-    </row>
-    <row r="29" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="43"/>
+        <v>44</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U28" s="2"/>
+    </row>
+    <row r="29" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="52"/>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -5488,14 +5827,20 @@
       <c r="R29" s="4">
         <v>0</v>
       </c>
-      <c r="S29" s="5">
+      <c r="S29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="43"/>
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="52"/>
       <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -5542,14 +5887,20 @@
       <c r="R30" s="4">
         <v>0</v>
       </c>
-      <c r="S30" s="5">
+      <c r="S30" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="43"/>
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="52"/>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D31" s="4">
         <v>48710</v>
@@ -5596,15 +5947,21 @@
       <c r="R31" s="4">
         <v>248171</v>
       </c>
-      <c r="S31" s="5">
-        <f t="shared" si="1"/>
-        <v>8.438383458810883E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="43"/>
+      <c r="S31" s="4">
+        <v>268077</v>
+      </c>
+      <c r="T31" s="4">
+        <v>290786</v>
+      </c>
+      <c r="U31" s="5">
+        <f t="shared" ref="U31:U32" si="5">(T31-S31)/S31</f>
+        <v>8.4710736094480321E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="52"/>
       <c r="C32" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D32" s="11">
         <f>(1-D30/D31)</f>
@@ -5652,69 +6009,81 @@
       <c r="R32" s="11">
         <v>1</v>
       </c>
-      <c r="S32" s="5">
-        <f t="shared" si="1"/>
+      <c r="S32" s="11">
+        <v>1</v>
+      </c>
+      <c r="T32" s="11">
+        <v>1</v>
+      </c>
+      <c r="U32" s="5">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="39" t="s">
-        <v>25</v>
+    <row r="33" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="48" t="s">
+        <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="43"/>
+        <v>46</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U33" s="2"/>
+    </row>
+    <row r="34" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="52"/>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D34" s="4">
         <v>463</v>
@@ -5761,15 +6130,21 @@
       <c r="R34" s="4">
         <v>471</v>
       </c>
-      <c r="S34" s="5">
-        <f t="shared" ref="S34" si="5">(R34-Q34)/Q34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="43"/>
+      <c r="S34" s="4">
+        <v>439</v>
+      </c>
+      <c r="T34" s="4">
+        <v>226</v>
+      </c>
+      <c r="U34" s="5">
+        <f>(T34-S34)/S34</f>
+        <v>-0.48519362186788156</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="52"/>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D35" s="4">
         <v>398</v>
@@ -5816,15 +6191,21 @@
       <c r="R35" s="4">
         <v>378</v>
       </c>
-      <c r="S35" s="5">
-        <f t="shared" si="1"/>
-        <v>5.3191489361702126E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="43"/>
+      <c r="S35" s="4">
+        <v>372</v>
+      </c>
+      <c r="T35" s="4">
+        <v>181</v>
+      </c>
+      <c r="U35" s="5">
+        <f t="shared" ref="U35:U37" si="6">(T35-S35)/S35</f>
+        <v>-0.51344086021505375</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="52"/>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D36" s="4">
         <v>187002</v>
@@ -5871,15 +6252,21 @@
       <c r="R36" s="4">
         <v>220008</v>
       </c>
-      <c r="S36" s="5">
-        <f t="shared" si="1"/>
-        <v>-6.5699462212649518E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="43"/>
+      <c r="S36" s="4">
+        <v>226383</v>
+      </c>
+      <c r="T36" s="4">
+        <v>166221</v>
+      </c>
+      <c r="U36" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.26575317051192004</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="52"/>
       <c r="C37" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D37" s="11">
         <f>(1-D35/D36)</f>
@@ -5927,69 +6314,81 @@
       <c r="R37" s="11">
         <v>0.99827999999999995</v>
       </c>
-      <c r="S37" s="5">
-        <f t="shared" si="1"/>
-        <v>-2.0034057898447364E-5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="39" t="s">
-        <v>26</v>
+      <c r="S37" s="11">
+        <v>0.99836000000000003</v>
+      </c>
+      <c r="T37" s="11">
+        <v>0.99890999999999996</v>
+      </c>
+      <c r="U37" s="5">
+        <f t="shared" si="6"/>
+        <v>5.5090348170994368E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="48" t="s">
+        <v>29</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S38" s="2"/>
-    </row>
-    <row r="39" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="43"/>
+        <v>49</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U38" s="2"/>
+    </row>
+    <row r="39" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="52"/>
       <c r="C39" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4">
         <v>308</v>
@@ -6036,15 +6435,21 @@
       <c r="R39" s="4">
         <v>280</v>
       </c>
-      <c r="S39" s="5">
-        <f t="shared" ref="S39" si="6">(R39-Q39)/Q39</f>
-        <v>-2.4390243902439025E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="43"/>
+      <c r="S39" s="4">
+        <v>270</v>
+      </c>
+      <c r="T39" s="4">
+        <v>347</v>
+      </c>
+      <c r="U39" s="5">
+        <f>(T39-S39)/S39</f>
+        <v>0.28518518518518521</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="52"/>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D40" s="4">
         <v>257</v>
@@ -6091,15 +6496,21 @@
       <c r="R40" s="4">
         <v>231</v>
       </c>
-      <c r="S40" s="5">
-        <f t="shared" si="1"/>
-        <v>-2.9411764705882353E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="43"/>
+      <c r="S40" s="4">
+        <v>244</v>
+      </c>
+      <c r="T40" s="4">
+        <v>305</v>
+      </c>
+      <c r="U40" s="5">
+        <f t="shared" ref="U40:U42" si="7">(T40-S40)/S40</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="52"/>
       <c r="C41" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D41" s="4">
         <v>115443</v>
@@ -6146,15 +6557,21 @@
       <c r="R41" s="4">
         <v>135865</v>
       </c>
-      <c r="S41" s="5">
-        <f t="shared" si="1"/>
-        <v>-2.1589624305970632E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="43"/>
+      <c r="S41" s="4">
+        <v>51610</v>
+      </c>
+      <c r="T41" s="4">
+        <v>128351</v>
+      </c>
+      <c r="U41" s="5">
+        <f t="shared" si="7"/>
+        <v>1.4869405154039914</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="52"/>
       <c r="C42" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D42" s="11">
         <f>(1-D40/D41)</f>
@@ -6202,9 +6619,15 @@
       <c r="R42" s="11">
         <v>0.99829999999999997</v>
       </c>
-      <c r="S42" s="5">
-        <f t="shared" si="1"/>
-        <v>1.0017129291042171E-5</v>
+      <c r="S42" s="11">
+        <v>0.99526999999999999</v>
+      </c>
+      <c r="T42" s="11">
+        <v>0.99761999999999995</v>
+      </c>
+      <c r="U42" s="5">
+        <f t="shared" si="7"/>
+        <v>2.3611683261828081E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6220,7 +6643,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -6228,7 +6651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6246,536 +6671,536 @@
     <row r="2" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4">
-        <v>7217</v>
+        <v>5533</v>
       </c>
       <c r="E3" s="5">
-        <v>6.3099999999999996E-3</v>
+        <v>7.1900000000000002E-3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H3" s="6">
-        <v>2924</v>
+        <v>2829</v>
       </c>
       <c r="I3" s="5">
-        <v>1.4370000000000001E-2</v>
+        <v>1.388E-2</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D4" s="4">
-        <v>4187</v>
+        <v>2844</v>
       </c>
       <c r="E4" s="5">
-        <v>3.6600000000000001E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H4" s="6">
-        <v>2224</v>
+        <v>2342</v>
       </c>
       <c r="I4" s="5">
-        <v>1.093E-2</v>
+        <v>1.149E-2</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4">
-        <v>3919</v>
+        <v>2839</v>
       </c>
       <c r="E5" s="5">
-        <v>3.4299999999999999E-3</v>
+        <v>3.6900000000000001E-3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H5" s="6">
-        <v>1845</v>
+        <v>1475</v>
       </c>
       <c r="I5" s="5">
-        <v>9.0699999999999999E-3</v>
+        <v>7.2399999999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D6" s="4">
-        <v>2540</v>
+        <v>1011</v>
       </c>
       <c r="E6" s="5">
-        <v>2.2200000000000002E-3</v>
+        <v>1.31E-3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H6" s="6">
-        <v>1488</v>
+        <v>1288</v>
       </c>
       <c r="I6" s="5">
-        <v>7.3099999999999997E-3</v>
+        <v>6.3200000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D7" s="4">
-        <v>1299</v>
+        <v>261</v>
       </c>
       <c r="E7" s="5">
-        <v>1.14E-3</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H7" s="6">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="I7" s="5">
-        <v>3.5000000000000001E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D8" s="4">
-        <v>394</v>
+        <v>230</v>
       </c>
       <c r="E8" s="5">
-        <v>3.4000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H8" s="6">
-        <v>662</v>
+        <v>739</v>
       </c>
       <c r="I8" s="5">
-        <v>3.2499999999999999E-3</v>
+        <v>3.63E-3</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D9" s="4">
-        <v>367</v>
+        <v>202</v>
       </c>
       <c r="E9" s="5">
-        <v>3.2000000000000003E-4</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H9" s="6">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="I9" s="5">
-        <v>3.1700000000000001E-3</v>
+        <v>3.2200000000000002E-3</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D10" s="4">
-        <v>322</v>
+        <v>201</v>
       </c>
       <c r="E10" s="5">
-        <v>2.7999999999999998E-4</v>
+        <v>2.5999999999999998E-4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H10" s="6">
-        <v>597</v>
+        <v>630</v>
       </c>
       <c r="I10" s="5">
-        <v>2.9299999999999999E-3</v>
+        <v>3.0899999999999999E-3</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D11" s="4">
-        <v>291</v>
+        <v>151</v>
       </c>
       <c r="E11" s="5">
-        <v>2.5000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H11" s="6">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="I11" s="5">
-        <v>2.5699999999999998E-3</v>
+        <v>2.6099999999999999E-3</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D12" s="4">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="E12" s="5">
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H12" s="6">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="I12" s="5">
-        <v>2.16E-3</v>
+        <v>2.3500000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1314</v>
+      </c>
+      <c r="E14" s="5">
+        <v>9.92E-3</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="4">
-        <v>1622</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1.013E-2</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H14" s="6">
-        <v>4022</v>
+        <v>2789</v>
       </c>
       <c r="I14" s="5">
-        <v>5.0800000000000003E-3</v>
+        <v>5.8700000000000002E-3</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1093</v>
+      </c>
+      <c r="E15" s="5">
+        <v>8.2500000000000004E-3</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="4">
-        <v>1489</v>
-      </c>
-      <c r="E15" s="5">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H15" s="6">
-        <v>1501</v>
+        <v>860</v>
       </c>
       <c r="I15" s="5">
-        <v>1.9E-3</v>
+        <v>1.81E-3</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="4">
-        <v>1300</v>
+        <v>879</v>
       </c>
       <c r="E16" s="5">
-        <v>8.1200000000000005E-3</v>
+        <v>6.6400000000000001E-3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H16" s="6">
-        <v>1360</v>
+        <v>820</v>
       </c>
       <c r="I16" s="5">
-        <v>1.72E-3</v>
+        <v>1.73E-3</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17" s="4">
-        <v>885</v>
+        <v>686</v>
       </c>
       <c r="E17" s="5">
-        <v>5.5300000000000002E-3</v>
+        <v>5.1799999999999997E-3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H17" s="6">
-        <v>1048</v>
+        <v>671</v>
       </c>
       <c r="I17" s="5">
-        <v>1.32E-3</v>
+        <v>1.41E-3</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D18" s="4">
-        <v>743</v>
+        <v>655</v>
       </c>
       <c r="E18" s="5">
-        <v>4.64E-3</v>
+        <v>4.9399999999999999E-3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H18" s="6">
-        <v>883</v>
+        <v>593</v>
       </c>
       <c r="I18" s="5">
-        <v>1.1199999999999999E-3</v>
+        <v>1.25E-3</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="4">
+        <v>476</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3.5899999999999999E-3</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="4">
-        <v>591</v>
-      </c>
-      <c r="E19" s="5">
-        <v>3.6900000000000001E-3</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G19" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H19" s="6">
-        <v>598</v>
+        <v>438</v>
       </c>
       <c r="I19" s="5">
-        <v>7.6000000000000004E-4</v>
+        <v>9.2000000000000003E-4</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="4">
+        <v>469</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3.5400000000000002E-3</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="4">
-        <v>576</v>
-      </c>
-      <c r="E20" s="5">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H20" s="6">
-        <v>546</v>
+        <v>388</v>
       </c>
       <c r="I20" s="5">
-        <v>6.8999999999999997E-4</v>
+        <v>8.1999999999999998E-4</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="4">
+        <v>430</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3.2499999999999999E-3</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="4">
-        <v>527</v>
-      </c>
-      <c r="E21" s="5">
-        <v>3.29E-3</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="G21" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H21" s="6">
-        <v>535</v>
+        <v>353</v>
       </c>
       <c r="I21" s="5">
-        <v>6.8000000000000005E-4</v>
+        <v>7.3999999999999999E-4</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D22" s="4">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="E22" s="5">
-        <v>1.58E-3</v>
+        <v>1.47E-3</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H22" s="6">
-        <v>446</v>
+        <v>264</v>
       </c>
       <c r="I22" s="5">
         <v>5.5999999999999995E-4</v>
@@ -6783,31 +7208,31 @@
     </row>
     <row r="23" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D23" s="4">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="E23" s="5">
-        <v>1.4499999999999999E-3</v>
+        <v>1.34E-3</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H23" s="6">
-        <v>397</v>
+        <v>260</v>
       </c>
       <c r="I23" s="5">
-        <v>5.0000000000000001E-4</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="K23" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -6822,7 +7247,569 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="46" customWidth="1"/>
+    <col min="2" max="2" width="11" style="46" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="11" style="45" customWidth="1"/>
+    <col min="6" max="10" width="9" style="44" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="52"/>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4">
+        <v>52</v>
+      </c>
+      <c r="E4" s="5" t="e">
+        <f>(D4-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="52"/>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5" t="e">
+        <f>(D5-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="52"/>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4">
+        <v>58154</v>
+      </c>
+      <c r="E6" s="5" t="e">
+        <f>(D6-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="52"/>
+      <c r="C7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.99929000000000001</v>
+      </c>
+      <c r="E7" s="5" t="e">
+        <f>(D7-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="52"/>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="e">
+        <f>(D9-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="52"/>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="e">
+        <f>(D10-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="52"/>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4">
+        <v>21400</v>
+      </c>
+      <c r="E11" s="5" t="e">
+        <f>(D11-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="52"/>
+      <c r="C12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="E12" s="5" t="e">
+        <f>(D12-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="52"/>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4">
+        <v>64</v>
+      </c>
+      <c r="E14" s="5" t="e">
+        <f>(D14-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="52"/>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4">
+        <v>54</v>
+      </c>
+      <c r="E15" s="5" t="e">
+        <f>(D15-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="52"/>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10680</v>
+      </c>
+      <c r="E16" s="5" t="e">
+        <f>(D16-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="52"/>
+      <c r="C17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.99494000000000005</v>
+      </c>
+      <c r="E17" s="5" t="e">
+        <f>(D17-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="52"/>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="e">
+        <f>(D19-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="52"/>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="e">
+        <f>(D20-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="52"/>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2612</v>
+      </c>
+      <c r="E21" s="5" t="e">
+        <f>(D21-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="52"/>
+      <c r="C22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="e">
+        <f>(D22-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="52"/>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4">
+        <v>60</v>
+      </c>
+      <c r="E24" s="5" t="e">
+        <f>(D24-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="52"/>
+      <c r="C25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="4">
+        <v>53</v>
+      </c>
+      <c r="E25" s="5" t="e">
+        <f>(D25-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="52"/>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="4">
+        <v>13500</v>
+      </c>
+      <c r="E26" s="5" t="e">
+        <f>(D26-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="52"/>
+      <c r="C27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.99607000000000001</v>
+      </c>
+      <c r="E27" s="5" t="e">
+        <f>(D27-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="52"/>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="52"/>
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="4">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="52"/>
+      <c r="C31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="4">
+        <v>552</v>
+      </c>
+      <c r="E31" s="5" t="e">
+        <f>(D31-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="52"/>
+      <c r="C32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.99456999999999995</v>
+      </c>
+      <c r="E32" s="5" t="e">
+        <f>(D32-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="52"/>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="4">
+        <v>32</v>
+      </c>
+      <c r="E34" s="5" t="e">
+        <f>(D34-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="52"/>
+      <c r="C35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="4">
+        <v>23</v>
+      </c>
+      <c r="E35" s="5" t="e">
+        <f>(D35-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="52"/>
+      <c r="C36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="4">
+        <v>8093</v>
+      </c>
+      <c r="E36" s="5" t="e">
+        <f>(D36-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="52"/>
+      <c r="C37" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.99716000000000005</v>
+      </c>
+      <c r="E37" s="5" t="e">
+        <f>(D37-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="52"/>
+      <c r="C39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="4">
+        <v>347</v>
+      </c>
+      <c r="E39" s="5" t="e">
+        <f>(D39-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="52"/>
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="4">
+        <v>305</v>
+      </c>
+      <c r="E40" s="5" t="e">
+        <f>(D40-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="52"/>
+      <c r="C41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="4">
+        <v>128351</v>
+      </c>
+      <c r="E41" s="5" t="e">
+        <f>(D41-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="52"/>
+      <c r="C42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0.99761999999999995</v>
+      </c>
+      <c r="E42" s="5" t="e">
+        <f>(D42-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6831,443 +7818,785 @@
     <col min="2" max="2" width="11" style="37" customWidth="1"/>
     <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="11" style="36" customWidth="1"/>
-    <col min="6" max="10" width="9" style="35" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="11" style="36" customWidth="1"/>
+    <col min="8" max="12" width="9" style="35" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
+        <v>102</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="52"/>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4">
         <v>300</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
+      <c r="E4" s="4">
+        <v>1369</v>
+      </c>
+      <c r="F4" s="4">
+        <v>430</v>
+      </c>
+      <c r="G4" s="5">
+        <f>(F4-E4)/E4</f>
+        <v>-0.68590211833455073</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="52"/>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4">
         <v>222</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43"/>
+      <c r="E5" s="4">
+        <v>559</v>
+      </c>
+      <c r="F5" s="4">
+        <v>297</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G7" si="0">(F5-E5)/E5</f>
+        <v>-0.46869409660107336</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="52"/>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4">
         <v>149425</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
+      <c r="E6" s="4">
+        <v>462800</v>
+      </c>
+      <c r="F6" s="4">
+        <v>531834</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.14916594641313743</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="52"/>
       <c r="C7" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="11">
         <v>0.99851000000000001</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
-        <v>20</v>
+      <c r="E7" s="11">
+        <v>0.99878999999999996</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.99944</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>6.5078745281794915E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
+        <v>96</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="52"/>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <f>(F9-E9)/E9</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="52"/>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" ref="G10:G12" si="1">(F10-E10)/E10</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="52"/>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4">
         <v>21496</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
+      <c r="E11" s="4">
+        <v>21419</v>
+      </c>
+      <c r="F11" s="4">
+        <v>21400</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>-8.8706288809001351E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="52"/>
       <c r="C12" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D12" s="11">
         <v>0.99995000000000001</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
-        <v>21</v>
+      <c r="E12" s="11">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>4.0003600324069172E-5</v>
+      </c>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
+        <v>104</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="52"/>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4">
         <v>9</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="H14" s="14"/>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
+      <c r="E14" s="4">
+        <v>58</v>
+      </c>
+      <c r="F14" s="4">
+        <v>140</v>
+      </c>
+      <c r="G14" s="5">
+        <f>(F14-E14)/E14</f>
+        <v>1.4137931034482758</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="52"/>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
+      <c r="E15" s="4">
+        <v>48</v>
+      </c>
+      <c r="F15" s="4">
+        <v>114</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" ref="G15:G17" si="2">(F15-E15)/E15</f>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="52"/>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4">
         <v>9423</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="43"/>
+      <c r="E16" s="4">
+        <v>10024</v>
+      </c>
+      <c r="F16" s="4">
+        <v>28745</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="2"/>
+        <v>1.8676177174780526</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="52"/>
       <c r="C17" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17" s="11">
         <v>0.99914999999999998</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
-        <v>22</v>
+      <c r="E17" s="11">
+        <v>0.99521000000000004</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.99602999999999997</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="2"/>
+        <v>8.2394670471551922E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48" t="s">
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
+        <v>106</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="52"/>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4">
         <v>58</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="43"/>
+      <c r="E19" s="4">
+        <v>48</v>
+      </c>
+      <c r="F19" s="4">
+        <v>50</v>
+      </c>
+      <c r="G19" s="5">
+        <f>(F19-E19)/E19</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="52"/>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4">
         <v>50</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
+      <c r="E20" s="4">
+        <v>36</v>
+      </c>
+      <c r="F20" s="4">
+        <v>40</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" ref="G20:G22" si="3">(F20-E20)/E20</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="52"/>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4">
         <v>72604</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="43"/>
+      <c r="E21" s="4">
+        <v>74886</v>
+      </c>
+      <c r="F21" s="4">
+        <v>76576</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="3"/>
+        <v>2.256763614026654E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="52"/>
       <c r="C22" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D22" s="11">
         <v>0.99931000000000003</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
-        <v>23</v>
+      <c r="E22" s="11">
+        <v>0.99951999999999996</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.99948000000000004</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.001920922035475E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="48" t="s">
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="43"/>
+        <v>107</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="52"/>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="43"/>
+      <c r="E24" s="4">
+        <v>999</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1214</v>
+      </c>
+      <c r="G24" s="5">
+        <f>(F24-E24)/E24</f>
+        <v>0.21521521521521522</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="52"/>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="43"/>
+      <c r="E25" s="4">
+        <v>847</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1038</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" ref="G25:G27" si="4">(F25-E25)/E25</f>
+        <v>0.22550177095631641</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="52"/>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D26" s="4">
         <v>188955</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="43"/>
+      <c r="E26" s="4">
+        <v>362846</v>
+      </c>
+      <c r="F26" s="4">
+        <v>389204</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="4"/>
+        <v>7.2642388230819685E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="52"/>
       <c r="C27" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D27" s="11">
         <v>0.99999000000000005</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
-        <v>24</v>
+      <c r="E27" s="11">
+        <v>0.99766999999999995</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.99733000000000005</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.407940501367145E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="48" t="s">
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="43"/>
+        <v>109</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="52"/>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
       </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="43"/>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="52"/>
       <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="43"/>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="52"/>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D31" s="4">
         <v>93174</v>
       </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="43"/>
+      <c r="E31" s="4">
+        <v>95562</v>
+      </c>
+      <c r="F31" s="4">
+        <v>97356</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" ref="G31:G32" si="5">(F31-E31)/E31</f>
+        <v>1.8773152508319207E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="52"/>
       <c r="C32" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D32" s="11">
         <v>1</v>
       </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="39" t="s">
-        <v>25</v>
+      <c r="E32" s="11">
+        <v>1</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="48" t="s">
+        <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="43"/>
+        <v>110</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="52"/>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D34" s="4">
         <v>55</v>
       </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="43"/>
+      <c r="E34" s="4">
+        <v>72</v>
+      </c>
+      <c r="F34" s="4">
+        <v>183</v>
+      </c>
+      <c r="G34" s="5">
+        <f>(F34-E34)/E34</f>
+        <v>1.5416666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="52"/>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D35" s="4">
         <v>43</v>
       </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="43"/>
+      <c r="E35" s="4">
+        <v>66</v>
+      </c>
+      <c r="F35" s="4">
+        <v>142</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" ref="G35:G37" si="6">(F35-E35)/E35</f>
+        <v>1.1515151515151516</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="52"/>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D36" s="4">
         <v>11063</v>
       </c>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="43"/>
+      <c r="E36" s="4">
+        <v>15172</v>
+      </c>
+      <c r="F36" s="4">
+        <v>73131</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="6"/>
+        <v>3.8201291853414183</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="52"/>
       <c r="C37" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D37" s="11">
         <v>0.99611000000000005</v>
       </c>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="39" t="s">
-        <v>26</v>
+      <c r="E37" s="11">
+        <v>0.99565000000000003</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0.99805999999999995</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="6"/>
+        <v>2.4205293024656379E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="48" t="s">
+        <v>29</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="43"/>
+        <v>111</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="52"/>
       <c r="C39" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4">
         <v>53</v>
       </c>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="43"/>
+      <c r="E39" s="4">
+        <v>192</v>
+      </c>
+      <c r="F39" s="4">
+        <v>52</v>
+      </c>
+      <c r="G39" s="5">
+        <f>(F39-E39)/E39</f>
+        <v>-0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="52"/>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D40" s="4">
         <v>41</v>
       </c>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="43"/>
+      <c r="E40" s="4">
+        <v>162</v>
+      </c>
+      <c r="F40" s="4">
+        <v>42</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" ref="G40:G42" si="7">(F40-E40)/E40</f>
+        <v>-0.7407407407407407</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="52"/>
       <c r="C41" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D41" s="4">
         <v>3965</v>
       </c>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="43"/>
+      <c r="E41" s="4">
+        <v>121641</v>
+      </c>
+      <c r="F41" s="4">
+        <v>22699</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.81339351041178554</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="52"/>
       <c r="C42" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D42" s="11">
         <v>0.98965999999999998</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="11">
+        <v>0.99866999999999995</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0.99814999999999998</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="7"/>
+        <v>-5.2069252105296543E-4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7286,13 +8615,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7300,443 +8627,705 @@
     <col min="2" max="2" width="11" style="37" customWidth="1"/>
     <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="11" style="36" customWidth="1"/>
-    <col min="6" max="10" width="9" style="35" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="40" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="43" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="36" customWidth="1"/>
+    <col min="8" max="12" width="9" style="35" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="48" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
+        <v>112</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="52"/>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4">
         <v>138</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
+      <c r="E4" s="4">
+        <v>207</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5">
+        <f>(F4-E4)/E4</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="52"/>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4">
         <v>111</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43"/>
+      <c r="E5" s="4">
+        <v>113</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G7" si="0">(F5-E5)/E5</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="52"/>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4">
         <v>113166</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
+      <c r="E6" s="4">
+        <v>112375</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="52"/>
       <c r="C7" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="11">
         <v>0.99902000000000002</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
-        <v>20</v>
+      <c r="E7" s="11">
+        <v>0.99899000000000004</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
+        <v>113</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="52"/>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="52"/>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="52"/>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4">
         <v>6473</v>
       </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
+      <c r="E11" s="4">
+        <v>6286</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5">
+        <f t="shared" ref="G11:G12" si="1">(F11-E11)/E11</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="52"/>
       <c r="C12" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D12" s="11">
         <v>0.99985000000000002</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
-        <v>21</v>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
+        <v>97</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="52"/>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4">
         <v>18</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="H14" s="14"/>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5">
+        <f>(F14-E14)/E14</f>
+        <v>-1</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="52"/>
       <c r="C15" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4">
         <v>14</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5">
+        <f t="shared" ref="G15:G17" si="2">(F15-E15)/E15</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="52"/>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4">
         <v>3013</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="43"/>
+      <c r="E16" s="4">
+        <v>6172</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="52"/>
       <c r="C17" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17" s="11">
         <v>0.99534999999999996</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
-        <v>22</v>
+      <c r="E17" s="11">
+        <v>0.99968000000000001</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="5">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48" t="s">
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
+        <v>115</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="52"/>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4">
         <v>59</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="43"/>
+      <c r="E19" s="4">
+        <v>57</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5">
+        <f>(F19-E19)/E19</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="52"/>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4">
         <v>55</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
+      <c r="E20" s="4">
+        <v>48</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5">
+        <f t="shared" ref="G20:G22" si="3">(F20-E20)/E20</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="52"/>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4">
         <v>38926</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="43"/>
+      <c r="E21" s="4">
+        <v>38726</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="52"/>
       <c r="C22" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D22" s="11">
         <v>0.99858999999999998</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="39" t="s">
-        <v>23</v>
+      <c r="E22" s="11">
+        <v>0.99875999999999998</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="5">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="48" t="s">
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="43"/>
+        <v>116</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="52"/>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24" s="4">
         <v>315</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="43"/>
+      <c r="E24" s="4">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5">
+        <f>(F24-E24)/E24</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="52"/>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D25" s="4">
         <v>222</v>
       </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="43"/>
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5">
+        <f t="shared" ref="G25:G27" si="4">(F25-E25)/E25</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="52"/>
       <c r="C26" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D26" s="4">
         <v>97611</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="43"/>
+      <c r="E26" s="4">
+        <v>174531</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="52"/>
       <c r="C27" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D27" s="11">
         <v>0.99773000000000001</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
-        <v>24</v>
+      <c r="E27" s="11">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="5">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="48" t="s">
+        <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="43"/>
+        <v>100</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="52"/>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D29" s="4">
         <v>15</v>
       </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="43"/>
+      <c r="E29" s="4">
+        <v>18</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5">
+        <f>(F29-E29)/E29</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="52"/>
       <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D30" s="4">
         <v>4</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="43"/>
+      <c r="E30" s="4">
+        <v>6</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5">
+        <f t="shared" ref="G30:G32" si="5">(F30-E30)/E30</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="52"/>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D31" s="4">
         <v>410</v>
       </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="43"/>
+      <c r="E31" s="4">
+        <v>468</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="52"/>
       <c r="C32" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D32" s="11">
         <v>0.99024000000000001</v>
       </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="39" t="s">
-        <v>25</v>
+      <c r="E32" s="11">
+        <v>0.98717999999999995</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="5">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="48" t="s">
+        <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="43"/>
+        <v>101</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="52"/>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D34" s="4">
         <v>31</v>
       </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="43"/>
+      <c r="E34" s="4">
+        <v>61</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5">
+        <f>(F34-E34)/E34</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="52"/>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D35" s="4">
         <v>21</v>
       </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="43"/>
+      <c r="E35" s="4">
+        <v>24</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5">
+        <f t="shared" ref="G35:G37" si="6">(F35-E35)/E35</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="52"/>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D36" s="4">
         <v>7390</v>
       </c>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="43"/>
+      <c r="E36" s="4">
+        <v>2193</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="52"/>
       <c r="C37" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D37" s="11">
         <v>0.99716000000000005</v>
       </c>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="39" t="s">
-        <v>26</v>
+      <c r="E37" s="11">
+        <v>0.98906000000000005</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="5">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="48" t="s">
+        <v>29</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="43"/>
+        <v>118</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="52"/>
       <c r="C39" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D39" s="4">
         <v>3</v>
       </c>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="43"/>
+      <c r="E39" s="4">
+        <v>41</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5">
+        <f>(F39-E39)/E39</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="52"/>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D40" s="4">
         <v>2</v>
       </c>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="43"/>
+      <c r="E40" s="4">
+        <v>36</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5">
+        <f t="shared" ref="G40:G42" si="7">(F40-E40)/E40</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="52"/>
       <c r="C41" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D41" s="4">
         <v>769</v>
       </c>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="43"/>
+      <c r="E41" s="4">
+        <v>3980</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="52"/>
       <c r="C42" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D42" s="11">
         <v>0.99739999999999995</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="11">
+        <v>0.99095</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="5">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/质量数据.xlsx
+++ b/质量数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11820" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="442">
   <si>
     <t>9月第3周</t>
   </si>
@@ -210,7 +210,7 @@
     <t>2017年11月第2周</t>
   </si>
   <si>
-    <t>new</t>
+    <t>2017年11月第3周</t>
   </si>
   <si>
     <t>环比</t>
@@ -586,6 +586,9 @@
   </si>
   <si>
     <t>2.17.100</t>
+  </si>
+  <si>
+    <t>2.19.40</t>
   </si>
   <si>
     <t>2.15.44</t>
@@ -1059,64 +1062,64 @@
     <t>2.26.3-himan|11</t>
   </si>
   <si>
-    <t>2.17.100-trafficd|11</t>
+    <t>2.19.40-trafficd|11</t>
   </si>
   <si>
     <t>2.19.32-etm|8</t>
   </si>
   <si>
-    <t>2.17.100-etm|6</t>
+    <t>2.19.40-etm|6</t>
+  </si>
+  <si>
+    <t>2.19.32-etm|11</t>
+  </si>
+  <si>
+    <t>2.19.40-etm|11</t>
   </si>
   <si>
     <t>2.19.32-tgp-plugin|6</t>
   </si>
   <si>
-    <t>2.17.100-etm|11</t>
-  </si>
-  <si>
-    <t>2.19.32-etm|11</t>
-  </si>
-  <si>
-    <t>2.17.100-tping|6</t>
+    <t>2.19.40-tping|6</t>
   </si>
   <si>
     <t>2.19.32-miiothrift|11</t>
   </si>
   <si>
-    <t>2.17.100-sysapihttpd|6</t>
+    <t>2.19.40-sysapihttpd|6</t>
   </si>
   <si>
     <t>2.19.32-minidlna|11</t>
   </si>
   <si>
-    <t>2.17.100-etm|10</t>
+    <t>2.19.40-rule_mgr|11</t>
   </si>
   <si>
     <t>2.19.32-indexservice|11</t>
   </si>
   <si>
-    <t>2.17.100-rule_mgr|11</t>
+    <t>2.19.40-etm|10</t>
+  </si>
+  <si>
+    <t>2.19.32-qierouterproxy|6</t>
+  </si>
+  <si>
+    <t>2.19.40-YBJXiaomiTest|10</t>
+  </si>
+  <si>
+    <t>2.19.32-mediaservice|11</t>
+  </si>
+  <si>
+    <t>2.19.40-qierouterproxy|10</t>
   </si>
   <si>
     <t>2.19.32-koolproxy|11</t>
   </si>
   <si>
-    <t>2.17.100-YBJXiaomiTest|10</t>
-  </si>
-  <si>
-    <t>2.19.32-qierouterproxy|6</t>
-  </si>
-  <si>
-    <t>2.17.100-sh|10</t>
+    <t>2.19.40-sh|10</t>
   </si>
   <si>
     <t>2.19.32-indexservice|6</t>
-  </si>
-  <si>
-    <t>2.17.100-iqiyi_server|10</t>
-  </si>
-  <si>
-    <t>2.19.32-mediaservice|11</t>
   </si>
   <si>
     <t>2.23.160-etm|11</t>
@@ -1125,19 +1128,19 @@
     <t>2.21.190-himan|11</t>
   </si>
   <si>
-    <t>2.23.160-koolproxy|11</t>
+    <t>2.23.160-tgp-plugin|6</t>
   </si>
   <si>
     <t>2.21.190-etm|6</t>
   </si>
   <si>
-    <t>2.23.160-minidlna|11</t>
+    <t>2.23.160-koolproxy|11</t>
   </si>
   <si>
     <t>2.21.190-elink|11</t>
   </si>
   <si>
-    <t>2.23.160-tgp-plugin|6</t>
+    <t>2.23.160-minidlna|11</t>
   </si>
   <si>
     <t>2.21.190-trafficd|11</t>
@@ -1146,13 +1149,19 @@
     <t>2.23.160-indexservice|11</t>
   </si>
   <si>
-    <t>2.21.190-koolproxy|11</t>
+    <t>2.21.190-etm|11</t>
+  </si>
+  <si>
+    <t>2.23.160-cachecenter|11</t>
+  </si>
+  <si>
+    <t>2.21.190-uaq-agent|11</t>
   </si>
   <si>
     <t>2.23.160-sec_clt|6</t>
   </si>
   <si>
-    <t>2.21.190-etm|11</t>
+    <t>2.21.190-koolproxy|11</t>
   </si>
   <si>
     <t>2.23.160-mediaservice|11</t>
@@ -1161,22 +1170,16 @@
     <t>2.21.190-tping|6</t>
   </si>
   <si>
-    <t>2.23.160-cachecenter|11</t>
+    <t>2.23.160-indexservice|6</t>
   </si>
   <si>
     <t>2.21.190-sysapihttpd|6</t>
   </si>
   <si>
-    <t>2.23.160-indexservice|6</t>
+    <t>2.23.160-adm|11</t>
   </si>
   <si>
     <t>2.21.190-koolproxy|10</t>
-  </si>
-  <si>
-    <t>2.23.160-adm|11</t>
-  </si>
-  <si>
-    <t>2.21.190-shareUpdate|11</t>
   </si>
   <si>
     <t>2.25.52-indexservice|11</t>
@@ -1188,13 +1191,13 @@
     <t>2.25.52-trafficd|11</t>
   </si>
   <si>
-    <t>2.13.65-elink|11</t>
+    <t>2.13.65-koolproxy|10</t>
   </si>
   <si>
     <t>2.25.52-etm|11</t>
   </si>
   <si>
-    <t>2.13.65-koolproxy|10</t>
+    <t>2.13.65-elink|11</t>
   </si>
   <si>
     <t>2.25.52-koolproxy|11</t>
@@ -1218,25 +1221,25 @@
     <t>2.25.52-quarkd|11</t>
   </si>
   <si>
-    <t>2.13.65-messagingagent|8</t>
-  </si>
-  <si>
-    <t>2.25.52-messagingagent|8</t>
-  </si>
-  <si>
     <t>2.13.65-trafficd|11</t>
   </si>
   <si>
     <t>2.25.52-iweventd.sh|11</t>
   </si>
   <si>
-    <t>2.13.65-datacenter|11</t>
+    <t>2.13.65-datacenter|6</t>
+  </si>
+  <si>
+    <t>2.25.52-datacenter|6</t>
+  </si>
+  <si>
+    <t>2.13.65-rule_mgr|11</t>
   </si>
   <si>
     <t>2.25.52-indexservice|4</t>
   </si>
   <si>
-    <t>2.13.65-timemachine_thr|11</t>
+    <t>2.13.65-tunnelserver|11</t>
   </si>
   <si>
     <t>2.25.122-koolproxy|11</t>
@@ -1248,25 +1251,25 @@
     <t>2.25.122-koolproxy|10</t>
   </si>
   <si>
+    <t>2.25.122-etm|10</t>
+  </si>
+  <si>
     <t>2.25.122-etm|11</t>
+  </si>
+  <si>
+    <t>2.25.122-etm|4</t>
+  </si>
+  <si>
+    <t>2.25.122-datacenter|6</t>
   </si>
   <si>
     <t>2.25.122-trafficd|11</t>
   </si>
   <si>
-    <t>2.25.122-datacenter|11</t>
+    <t>2.25.122-etm|6</t>
   </si>
   <si>
-    <t>2.25.122-etm|10</t>
-  </si>
-  <si>
-    <t>2.25.122-messagingagent|8</t>
-  </si>
-  <si>
-    <t>2.25.122-indexservice|6</t>
-  </si>
-  <si>
-    <t>2.25.122-tunnelserver|11</t>
+    <t>2.25.122-sysapihttpd|11</t>
   </si>
   <si>
     <t>2.14.8</t>
@@ -1348,9 +1351,6 @@
   </si>
   <si>
     <t>2.12.1</t>
-  </si>
-  <si>
-    <t>2017年11月第3周</t>
   </si>
 </sst>
 </file>
@@ -2001,9 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ344"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BQ12" sqref="BQ12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2323,7 +2321,7 @@
         <v>60</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>441</v>
+        <v>61</v>
       </c>
       <c r="BN2" s="61" t="s">
         <v>62</v>
@@ -16358,9 +16356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT82"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="BQ77" sqref="BQ77"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16616,7 +16612,7 @@
         <v>60</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>441</v>
+        <v>61</v>
       </c>
       <c r="BN2" s="10" t="s">
         <v>62</v>
@@ -28806,7 +28802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="AZ14" sqref="AZ14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29152,7 +29150,9 @@
       <c r="AV3" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AW3" s="2"/>
+      <c r="AW3" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="AX3" s="2"/>
     </row>
     <row r="4" spans="2:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29295,10 +29295,12 @@
       <c r="AV4" s="4">
         <v>119</v>
       </c>
-      <c r="AW4" s="4"/>
+      <c r="AW4" s="4">
+        <v>94</v>
+      </c>
       <c r="AX4" s="5">
-        <f t="shared" ref="AX4:AX67" si="0">(AV4-AU4)/AU4</f>
-        <v>-0.15602836879432624</v>
+        <f t="shared" ref="AX4:AX67" si="0">(AW4-AV4)/AV4</f>
+        <v>-0.21008403361344538</v>
       </c>
     </row>
     <row r="5" spans="2:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29441,10 +29443,12 @@
       <c r="AV5" s="4">
         <v>103</v>
       </c>
-      <c r="AW5" s="4"/>
+      <c r="AW5" s="4">
+        <v>86</v>
+      </c>
       <c r="AX5" s="5">
         <f t="shared" si="0"/>
-        <v>-0.18253968253968253</v>
+        <v>-0.1650485436893204</v>
       </c>
     </row>
     <row r="6" spans="2:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29587,10 +29591,12 @@
       <c r="AV6" s="4">
         <v>51495</v>
       </c>
-      <c r="AW6" s="4"/>
+      <c r="AW6" s="4">
+        <v>47971</v>
+      </c>
       <c r="AX6" s="5">
         <f t="shared" si="0"/>
-        <v>-4.8524844720496894E-4</v>
+        <v>-6.8433828527041454E-2</v>
       </c>
     </row>
     <row r="7" spans="2:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29733,10 +29739,12 @@
       <c r="AV7" s="11">
         <v>0.998</v>
       </c>
-      <c r="AW7" s="11"/>
+      <c r="AW7" s="11">
+        <v>0.99821000000000004</v>
+      </c>
       <c r="AX7" s="5">
         <f t="shared" si="0"/>
-        <v>4.5110520775895987E-4</v>
+        <v>2.1042084168341031E-4</v>
       </c>
     </row>
     <row r="8" spans="2:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29747,141 +29755,143 @@
         <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW8" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="AX8" s="2"/>
     </row>
     <row r="9" spans="2:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -30024,10 +30034,12 @@
       <c r="AV9" s="4">
         <v>17</v>
       </c>
-      <c r="AW9" s="4"/>
+      <c r="AW9" s="4">
+        <v>16</v>
+      </c>
       <c r="AX9" s="5">
         <f t="shared" si="0"/>
-        <v>-0.15</v>
+        <v>-5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="10" spans="2:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -30170,10 +30182,12 @@
       <c r="AV10" s="4">
         <v>13</v>
       </c>
-      <c r="AW10" s="4"/>
+      <c r="AW10" s="4">
+        <v>11</v>
+      </c>
       <c r="AX10" s="5">
         <f t="shared" si="0"/>
-        <v>-0.13333333333333333</v>
+        <v>-0.15384615384615385</v>
       </c>
     </row>
     <row r="11" spans="2:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -30316,10 +30330,12 @@
       <c r="AV11" s="4">
         <v>19226</v>
       </c>
-      <c r="AW11" s="4"/>
+      <c r="AW11" s="4">
+        <v>19138</v>
+      </c>
       <c r="AX11" s="5">
         <f t="shared" si="0"/>
-        <v>-2.335114939546469E-3</v>
+        <v>-4.5771351295121193E-3</v>
       </c>
     </row>
     <row r="12" spans="2:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -30462,10 +30478,12 @@
       <c r="AV12" s="11">
         <v>0.99931999999999999</v>
       </c>
-      <c r="AW12" s="11"/>
+      <c r="AW12" s="11">
+        <v>0.99943000000000004</v>
+      </c>
       <c r="AX12" s="5">
         <f t="shared" si="0"/>
-        <v>1.0007806088748123E-4</v>
+        <v>1.1007485089866559E-4</v>
       </c>
       <c r="BD12" s="13"/>
     </row>
@@ -30477,141 +30495,143 @@
         <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="N13" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AR13" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AU13" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AV13" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AW13" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="AW13" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="AX13" s="2"/>
       <c r="BD13" s="13"/>
     </row>
@@ -30755,10 +30775,12 @@
       <c r="AV14" s="4">
         <v>7</v>
       </c>
-      <c r="AW14" s="4"/>
+      <c r="AW14" s="4">
+        <v>5</v>
+      </c>
       <c r="AX14" s="5">
         <f t="shared" si="0"/>
-        <v>-0.36363636363636365</v>
+        <v>-0.2857142857142857</v>
       </c>
       <c r="BA14" s="14"/>
       <c r="BD14" s="13"/>
@@ -30903,10 +30925,12 @@
       <c r="AV15" s="4">
         <v>6</v>
       </c>
-      <c r="AW15" s="4"/>
+      <c r="AW15" s="4">
+        <v>5</v>
+      </c>
       <c r="AX15" s="5">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>-0.16666666666666666</v>
       </c>
     </row>
     <row r="16" spans="2:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -31049,10 +31073,12 @@
       <c r="AV16" s="4">
         <v>11716</v>
       </c>
-      <c r="AW16" s="4"/>
+      <c r="AW16" s="4">
+        <v>11781</v>
+      </c>
       <c r="AX16" s="5">
         <f t="shared" si="0"/>
-        <v>8.2616179001721163E-3</v>
+        <v>5.5479685899624447E-3</v>
       </c>
     </row>
     <row r="17" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -31195,10 +31221,12 @@
       <c r="AV17" s="11">
         <v>0.99948999999999999</v>
       </c>
-      <c r="AW17" s="11"/>
+      <c r="AW17" s="11">
+        <v>0.99958000000000002</v>
+      </c>
       <c r="AX17" s="5">
         <f t="shared" si="0"/>
-        <v>1.8012428575713037E-4</v>
+        <v>9.0045923420979191E-5</v>
       </c>
     </row>
     <row r="18" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -31209,141 +31237,143 @@
         <v>99</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AI18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AJ18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AP18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AR18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AS18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AT18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AU18" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AV18" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW18" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="AX18" s="2"/>
     </row>
     <row r="19" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -31486,10 +31516,12 @@
       <c r="AV19" s="4">
         <v>14</v>
       </c>
-      <c r="AW19" s="4"/>
+      <c r="AW19" s="4">
+        <v>13</v>
+      </c>
       <c r="AX19" s="5">
         <f t="shared" si="0"/>
-        <v>-6.6666666666666666E-2</v>
+        <v>-7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="20" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -31632,10 +31664,12 @@
       <c r="AV20" s="4">
         <v>14</v>
       </c>
-      <c r="AW20" s="4"/>
+      <c r="AW20" s="4">
+        <v>13</v>
+      </c>
       <c r="AX20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="21" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -31778,10 +31812,12 @@
       <c r="AV21" s="4">
         <v>3355</v>
       </c>
-      <c r="AW21" s="4"/>
+      <c r="AW21" s="4">
+        <v>3345</v>
+      </c>
       <c r="AX21" s="5">
         <f t="shared" si="0"/>
-        <v>-2.9797377830750892E-4</v>
+        <v>-2.9806259314456036E-3</v>
       </c>
     </row>
     <row r="22" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -31924,10 +31960,12 @@
       <c r="AV22" s="11">
         <v>0.99582999999999999</v>
       </c>
-      <c r="AW22" s="11"/>
+      <c r="AW22" s="11">
+        <v>0.99611000000000005</v>
+      </c>
       <c r="AX22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.8117248928035706E-4</v>
       </c>
     </row>
     <row r="23" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -31938,141 +31976,143 @@
         <v>99</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y23" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF23" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI23" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AJ23" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK23" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL23" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM23" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO23" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP23" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AQ23" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AR23" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AS23" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AT23" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AU23" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AV23" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AW23" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="AW23" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="AX23" s="2"/>
     </row>
     <row r="24" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -32215,10 +32255,12 @@
       <c r="AV24" s="4">
         <v>34</v>
       </c>
-      <c r="AW24" s="4"/>
+      <c r="AW24" s="4">
+        <v>14</v>
+      </c>
       <c r="AX24" s="5">
         <f t="shared" si="0"/>
-        <v>0.47826086956521741</v>
+        <v>-0.58823529411764708</v>
       </c>
     </row>
     <row r="25" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -32361,10 +32403,12 @@
       <c r="AV25" s="4">
         <v>16</v>
       </c>
-      <c r="AW25" s="4"/>
+      <c r="AW25" s="4">
+        <v>10</v>
+      </c>
       <c r="AX25" s="5">
         <f t="shared" si="0"/>
-        <v>-0.15789473684210525</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="26" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -32507,10 +32551,12 @@
       <c r="AV26" s="4">
         <v>30773</v>
       </c>
-      <c r="AW26" s="4"/>
+      <c r="AW26" s="4">
+        <v>31021</v>
+      </c>
       <c r="AX26" s="5">
         <f t="shared" si="0"/>
-        <v>9.1824353130226608E-3</v>
+        <v>8.059012770935561E-3</v>
       </c>
     </row>
     <row r="27" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -32653,10 +32699,12 @@
       <c r="AV27" s="11">
         <v>0.99948000000000004</v>
       </c>
-      <c r="AW27" s="11"/>
+      <c r="AW27" s="11">
+        <v>0.99968000000000001</v>
+      </c>
       <c r="AX27" s="5">
         <f t="shared" si="0"/>
-        <v>1.0006203846383656E-4</v>
+        <v>2.001040541081142E-4</v>
       </c>
     </row>
     <row r="28" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -32667,141 +32715,143 @@
         <v>99</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AI28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AJ28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AP28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AQ28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AR28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AS28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AT28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AU28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AV28" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AW28" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="AW28" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="AX28" s="2"/>
     </row>
     <row r="29" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -32944,10 +32994,12 @@
       <c r="AV29" s="4">
         <v>56</v>
       </c>
-      <c r="AW29" s="4"/>
+      <c r="AW29" s="4">
+        <v>27</v>
+      </c>
       <c r="AX29" s="5">
         <f t="shared" si="0"/>
-        <v>-0.54471544715447151</v>
+        <v>-0.5178571428571429</v>
       </c>
     </row>
     <row r="30" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -33090,10 +33142,12 @@
       <c r="AV30" s="4">
         <v>12</v>
       </c>
-      <c r="AW30" s="4"/>
+      <c r="AW30" s="4">
+        <v>10</v>
+      </c>
       <c r="AX30" s="5">
         <f t="shared" si="0"/>
-        <v>-0.2</v>
+        <v>-0.16666666666666666</v>
       </c>
     </row>
     <row r="31" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -33236,10 +33290,12 @@
       <c r="AV31" s="4">
         <v>2042</v>
       </c>
-      <c r="AW31" s="4"/>
+      <c r="AW31" s="4">
+        <v>2085</v>
+      </c>
       <c r="AX31" s="5">
         <f t="shared" si="0"/>
-        <v>1.1892963330029732E-2</v>
+        <v>2.1057786483839373E-2</v>
       </c>
     </row>
     <row r="32" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -33382,10 +33438,12 @@
       <c r="AV32" s="11">
         <v>0.99412</v>
       </c>
-      <c r="AW32" s="11"/>
+      <c r="AW32" s="11">
+        <v>0.99519999999999997</v>
+      </c>
       <c r="AX32" s="5">
         <f t="shared" si="0"/>
-        <v>1.5616027081213934E-3</v>
+        <v>1.0863879612118957E-3</v>
       </c>
     </row>
     <row r="33" spans="1:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -33406,114 +33464,116 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="S33" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Q33" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="T33" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA33" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF33" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AH33" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AI33" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AJ33" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK33" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL33" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM33" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN33" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO33" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AP33" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AQ33" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AR33" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AS33" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AT33" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AU33" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AV33" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AW33" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="AW33" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="AX33" s="2"/>
       <c r="AY33" s="72"/>
       <c r="AZ33" s="72"/>
@@ -33645,10 +33705,12 @@
       <c r="AV34" s="4">
         <v>2</v>
       </c>
-      <c r="AW34" s="4"/>
+      <c r="AW34" s="4">
+        <v>2</v>
+      </c>
       <c r="AX34" s="5">
         <f t="shared" si="0"/>
-        <v>-0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="AY34" s="72"/>
       <c r="AZ34" s="72"/>
@@ -33780,10 +33842,12 @@
       <c r="AV35" s="4">
         <v>2</v>
       </c>
-      <c r="AW35" s="4"/>
+      <c r="AW35" s="4">
+        <v>2</v>
+      </c>
       <c r="AX35" s="5">
         <f t="shared" si="0"/>
-        <v>-0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="AY35" s="72"/>
       <c r="AZ35" s="72"/>
@@ -33915,10 +33979,12 @@
       <c r="AV36" s="4">
         <v>1491</v>
       </c>
-      <c r="AW36" s="4"/>
+      <c r="AW36" s="4">
+        <v>1529</v>
+      </c>
       <c r="AX36" s="5">
         <f t="shared" si="0"/>
-        <v>3.5416666666666666E-2</v>
+        <v>2.5486250838363516E-2</v>
       </c>
       <c r="AY36" s="72"/>
       <c r="AZ36" s="72"/>
@@ -34050,10 +34116,12 @@
       <c r="AV37" s="11">
         <v>0.99865999999999999</v>
       </c>
-      <c r="AW37" s="11"/>
+      <c r="AW37" s="11">
+        <v>0.99868999999999997</v>
+      </c>
       <c r="AX37" s="5">
         <f t="shared" si="0"/>
-        <v>7.4154240820903774E-4</v>
+        <v>3.0040253940254431E-5</v>
       </c>
       <c r="AY37" s="72"/>
       <c r="AZ37" s="72"/>
@@ -34080,114 +34148,116 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF38" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AH38" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AI38" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AJ38" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK38" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL38" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM38" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN38" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO38" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AP38" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AQ38" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AR38" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AS38" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AT38" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AU38" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AV38" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="AW38" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="AW38" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="AX38" s="2"/>
       <c r="AY38" s="72"/>
       <c r="AZ38" s="72"/>
@@ -34319,10 +34389,12 @@
       <c r="AV39" s="4">
         <v>17</v>
       </c>
-      <c r="AW39" s="4"/>
+      <c r="AW39" s="4">
+        <v>15</v>
+      </c>
       <c r="AX39" s="5">
         <f t="shared" si="0"/>
-        <v>-0.15</v>
+        <v>-0.11764705882352941</v>
       </c>
       <c r="AY39" s="72"/>
       <c r="AZ39" s="72"/>
@@ -34454,10 +34526,12 @@
       <c r="AV40" s="4">
         <v>7</v>
       </c>
-      <c r="AW40" s="4"/>
+      <c r="AW40" s="4">
+        <v>6</v>
+      </c>
       <c r="AX40" s="5">
         <f t="shared" si="0"/>
-        <v>-0.22222222222222221</v>
+        <v>-0.14285714285714285</v>
       </c>
       <c r="AY40" s="72"/>
       <c r="AZ40" s="72"/>
@@ -34589,10 +34663,12 @@
       <c r="AV41" s="4">
         <v>2726</v>
       </c>
-      <c r="AW41" s="4"/>
+      <c r="AW41" s="4">
+        <v>2811</v>
+      </c>
       <c r="AX41" s="5">
         <f t="shared" si="0"/>
-        <v>1.3006317354143442E-2</v>
+        <v>3.1181217901687455E-2</v>
       </c>
       <c r="AY41" s="72"/>
       <c r="AZ41" s="72"/>
@@ -34724,10 +34800,12 @@
       <c r="AV42" s="11">
         <v>0.99743000000000004</v>
       </c>
-      <c r="AW42" s="11"/>
+      <c r="AW42" s="11">
+        <v>0.99787000000000003</v>
+      </c>
       <c r="AX42" s="5">
         <f t="shared" si="0"/>
-        <v>7.7258041859816625E-4</v>
+        <v>4.4113371364406118E-4</v>
       </c>
       <c r="AY42" s="72"/>
       <c r="AZ42" s="72"/>
@@ -34778,42 +34856,44 @@
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
       <c r="AK43" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL43" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM43" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN43" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO43" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP43" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AQ43" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AR43" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AS43" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AT43" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AU43" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AV43" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="AW43" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="AW43" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="AX43" s="2"/>
       <c r="AY43" s="130"/>
       <c r="AZ43" s="130"/>
@@ -34897,10 +34977,12 @@
       <c r="AV44" s="4">
         <v>6</v>
       </c>
-      <c r="AW44" s="4"/>
+      <c r="AW44" s="4">
+        <v>4</v>
+      </c>
       <c r="AX44" s="5">
         <f t="shared" si="0"/>
-        <v>-0.14285714285714285</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="AY44" s="130"/>
       <c r="AZ44" s="130"/>
@@ -34984,10 +35066,12 @@
       <c r="AV45" s="4">
         <v>6</v>
       </c>
-      <c r="AW45" s="4"/>
+      <c r="AW45" s="4">
+        <v>4</v>
+      </c>
       <c r="AX45" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="AY45" s="130"/>
       <c r="AZ45" s="130"/>
@@ -35071,10 +35155,12 @@
       <c r="AV46" s="4">
         <v>1660</v>
       </c>
-      <c r="AW46" s="4"/>
+      <c r="AW46" s="4">
+        <v>1743</v>
+      </c>
       <c r="AX46" s="5">
         <f t="shared" si="0"/>
-        <v>5.8673469387755105E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AY46" s="130"/>
       <c r="AZ46" s="130"/>
@@ -35158,10 +35244,12 @@
       <c r="AV47" s="11">
         <v>0.99639</v>
       </c>
-      <c r="AW47" s="11"/>
+      <c r="AW47" s="11">
+        <v>0.99770999999999999</v>
+      </c>
       <c r="AX47" s="5">
         <f t="shared" si="0"/>
-        <v>2.2084583956553396E-4</v>
+        <v>1.3247824646975459E-3</v>
       </c>
       <c r="AY47" s="130"/>
       <c r="AZ47" s="130"/>
@@ -35212,38 +35300,38 @@
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
       <c r="AK48" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL48" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM48" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN48" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AO48" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AP48" s="2"/>
       <c r="AQ48" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AR48" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AS48" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AT48" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AU48" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AV48" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AW48" s="2"/>
       <c r="AX48" s="2"/>
@@ -35329,7 +35417,9 @@
       <c r="AV49" s="4">
         <v>0</v>
       </c>
-      <c r="AW49" s="4"/>
+      <c r="AW49" s="4">
+        <v>0</v>
+      </c>
       <c r="AX49" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -35416,7 +35506,9 @@
       <c r="AV50" s="4">
         <v>0</v>
       </c>
-      <c r="AW50" s="4"/>
+      <c r="AW50" s="4">
+        <v>0</v>
+      </c>
       <c r="AX50" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -35503,10 +35595,12 @@
       <c r="AV51" s="4">
         <v>1</v>
       </c>
-      <c r="AW51" s="4"/>
+      <c r="AW51" s="4">
+        <v>0</v>
+      </c>
       <c r="AX51" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY51" s="130"/>
       <c r="AZ51" s="130"/>
@@ -35590,10 +35684,12 @@
       <c r="AV52" s="11">
         <v>1</v>
       </c>
-      <c r="AW52" s="11"/>
+      <c r="AW52" s="11">
+        <v>0</v>
+      </c>
       <c r="AX52" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY52" s="130"/>
       <c r="AZ52" s="130"/>
@@ -35653,13 +35749,13 @@
       <c r="AR53" s="159"/>
       <c r="AS53" s="159"/>
       <c r="AT53" s="159" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AU53" s="159" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AV53" s="159" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AW53" s="159"/>
       <c r="AX53" s="2"/>
@@ -35727,7 +35823,9 @@
       <c r="AV54" s="11">
         <v>0</v>
       </c>
-      <c r="AW54" s="11"/>
+      <c r="AW54" s="11">
+        <v>0</v>
+      </c>
       <c r="AX54" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -35796,7 +35894,9 @@
       <c r="AV55" s="11">
         <v>0</v>
       </c>
-      <c r="AW55" s="11"/>
+      <c r="AW55" s="11">
+        <v>0</v>
+      </c>
       <c r="AX55" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -35865,10 +35965,12 @@
       <c r="AV56" s="11">
         <v>1</v>
       </c>
-      <c r="AW56" s="11"/>
+      <c r="AW56" s="11">
+        <v>0</v>
+      </c>
       <c r="AX56" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY56" s="157"/>
       <c r="AZ56" s="157"/>
@@ -35934,10 +36036,12 @@
       <c r="AV57" s="11">
         <v>1</v>
       </c>
-      <c r="AW57" s="11"/>
+      <c r="AW57" s="11">
+        <v>0</v>
+      </c>
       <c r="AX57" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY57" s="157"/>
       <c r="AZ57" s="157"/>
@@ -35997,13 +36101,13 @@
       <c r="AR58" s="159"/>
       <c r="AS58" s="159"/>
       <c r="AT58" s="159" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AU58" s="159" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AV58" s="159" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AW58" s="159"/>
       <c r="AX58" s="2"/>
@@ -36071,7 +36175,9 @@
       <c r="AV59" s="11">
         <v>0</v>
       </c>
-      <c r="AW59" s="11"/>
+      <c r="AW59" s="11">
+        <v>0</v>
+      </c>
       <c r="AX59" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -36140,7 +36246,9 @@
       <c r="AV60" s="11">
         <v>0</v>
       </c>
-      <c r="AW60" s="11"/>
+      <c r="AW60" s="11">
+        <v>0</v>
+      </c>
       <c r="AX60" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -36209,10 +36317,12 @@
       <c r="AV61" s="11">
         <v>1</v>
       </c>
-      <c r="AW61" s="11"/>
+      <c r="AW61" s="11">
+        <v>0</v>
+      </c>
       <c r="AX61" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY61" s="157"/>
       <c r="AZ61" s="157"/>
@@ -36278,10 +36388,12 @@
       <c r="AV62" s="11">
         <v>1</v>
       </c>
-      <c r="AW62" s="11"/>
+      <c r="AW62" s="11">
+        <v>0</v>
+      </c>
       <c r="AX62" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY62" s="157"/>
       <c r="AZ62" s="157"/>
@@ -36341,13 +36453,13 @@
       <c r="AR63" s="159"/>
       <c r="AS63" s="159"/>
       <c r="AT63" s="159" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AU63" s="159" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AV63" s="159" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AW63" s="159"/>
       <c r="AX63" s="2"/>
@@ -36415,7 +36527,9 @@
       <c r="AV64" s="11">
         <v>0</v>
       </c>
-      <c r="AW64" s="11"/>
+      <c r="AW64" s="11">
+        <v>0</v>
+      </c>
       <c r="AX64" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -36484,7 +36598,9 @@
       <c r="AV65" s="11">
         <v>0</v>
       </c>
-      <c r="AW65" s="11"/>
+      <c r="AW65" s="11">
+        <v>0</v>
+      </c>
       <c r="AX65" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -36553,10 +36669,12 @@
       <c r="AV66" s="11">
         <v>1</v>
       </c>
-      <c r="AW66" s="11"/>
+      <c r="AW66" s="11">
+        <v>0</v>
+      </c>
       <c r="AX66" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY66" s="157"/>
       <c r="AZ66" s="157"/>
@@ -36622,10 +36740,12 @@
       <c r="AV67" s="11">
         <v>1</v>
       </c>
-      <c r="AW67" s="11"/>
+      <c r="AW67" s="11">
+        <v>0</v>
+      </c>
       <c r="AX67" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY67" s="157"/>
       <c r="AZ67" s="157"/>
@@ -36685,13 +36805,13 @@
       <c r="AR68" s="159"/>
       <c r="AS68" s="159"/>
       <c r="AT68" s="159" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AU68" s="159" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AV68" s="159" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AW68" s="159"/>
       <c r="AX68" s="2"/>
@@ -36759,9 +36879,11 @@
       <c r="AV69" s="11">
         <v>0</v>
       </c>
-      <c r="AW69" s="11"/>
+      <c r="AW69" s="11">
+        <v>0</v>
+      </c>
       <c r="AX69" s="5" t="e">
-        <f t="shared" ref="AX69:AX82" si="1">(AV69-AU69)/AU69</f>
+        <f t="shared" ref="AX69:AX82" si="1">(AW69-AV69)/AV69</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AY69" s="157"/>
@@ -36828,7 +36950,9 @@
       <c r="AV70" s="11">
         <v>0</v>
       </c>
-      <c r="AW70" s="11"/>
+      <c r="AW70" s="11">
+        <v>0</v>
+      </c>
       <c r="AX70" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -36897,10 +37021,12 @@
       <c r="AV71" s="11">
         <v>1</v>
       </c>
-      <c r="AW71" s="11"/>
+      <c r="AW71" s="11">
+        <v>0</v>
+      </c>
       <c r="AX71" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY71" s="157"/>
       <c r="AZ71" s="157"/>
@@ -36966,10 +37092,12 @@
       <c r="AV72" s="11">
         <v>1</v>
       </c>
-      <c r="AW72" s="11"/>
+      <c r="AW72" s="11">
+        <v>0</v>
+      </c>
       <c r="AX72" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY72" s="157"/>
       <c r="AZ72" s="157"/>
@@ -36986,141 +37114,143 @@
         <v>99</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="U73" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="W73" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y73" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z73" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA73" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AC73" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AD73" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AE73" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF73" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG73" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AH73" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AI73" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AJ73" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AK73" s="2" t="s">
         <v>175</v>
       </c>
       <c r="AL73" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM73" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN73" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO73" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AP73" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AQ73" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AR73" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AS73" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AT73" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AU73" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AV73" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="AW73" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="AW73" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="AX73" s="2"/>
     </row>
     <row r="74" spans="1:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -37263,10 +37393,12 @@
       <c r="AV74" s="4">
         <v>103</v>
       </c>
-      <c r="AW74" s="4"/>
+      <c r="AW74" s="4">
+        <v>82</v>
+      </c>
       <c r="AX74" s="5">
         <f t="shared" si="1"/>
-        <v>0.98076923076923073</v>
+        <v>-0.20388349514563106</v>
       </c>
     </row>
     <row r="75" spans="1:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -37409,10 +37541,12 @@
       <c r="AV75" s="4">
         <v>64</v>
       </c>
-      <c r="AW75" s="4"/>
+      <c r="AW75" s="4">
+        <v>59</v>
+      </c>
       <c r="AX75" s="5">
         <f t="shared" si="1"/>
-        <v>0.72972972972972971</v>
+        <v>-7.8125E-2</v>
       </c>
     </row>
     <row r="76" spans="1:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -37555,10 +37689,12 @@
       <c r="AV76" s="4">
         <v>6148</v>
       </c>
-      <c r="AW76" s="4"/>
+      <c r="AW76" s="4">
+        <v>6323</v>
+      </c>
       <c r="AX76" s="5">
         <f t="shared" si="1"/>
-        <v>4.2469781117281937E-3</v>
+        <v>2.8464541314248536E-2</v>
       </c>
     </row>
     <row r="77" spans="1:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -37701,10 +37837,12 @@
       <c r="AV77" s="11">
         <v>0.98958999999999997</v>
       </c>
-      <c r="AW77" s="11"/>
+      <c r="AW77" s="11">
+        <v>0.99067000000000005</v>
+      </c>
       <c r="AX77" s="5">
         <f t="shared" si="1"/>
-        <v>-4.3965551933679275E-3</v>
+        <v>1.0913610687255135E-3</v>
       </c>
     </row>
     <row r="78" spans="1:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -37849,7 +37987,9 @@
       <c r="AV78" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AW78" s="2"/>
+      <c r="AW78" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="AX78" s="2"/>
     </row>
     <row r="79" spans="1:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -37992,10 +38132,12 @@
       <c r="AV79" s="4">
         <v>431</v>
       </c>
-      <c r="AW79" s="4"/>
+      <c r="AW79" s="4">
+        <v>412</v>
+      </c>
       <c r="AX79" s="5">
         <f t="shared" si="1"/>
-        <v>-0.12929292929292929</v>
+        <v>-4.4083526682134569E-2</v>
       </c>
     </row>
     <row r="80" spans="1:56" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -38138,10 +38280,12 @@
       <c r="AV80" s="4">
         <v>403</v>
       </c>
-      <c r="AW80" s="4"/>
+      <c r="AW80" s="4">
+        <v>385</v>
+      </c>
       <c r="AX80" s="5">
         <f t="shared" si="1"/>
-        <v>-0.14255319148936171</v>
+        <v>-4.4665012406947889E-2</v>
       </c>
     </row>
     <row r="81" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -38284,10 +38428,12 @@
       <c r="AV81" s="4">
         <v>156200</v>
       </c>
-      <c r="AW81" s="4"/>
+      <c r="AW81" s="4">
+        <v>154846</v>
+      </c>
       <c r="AX81" s="5">
         <f t="shared" si="1"/>
-        <v>-3.5135402253409762E-2</v>
+        <v>-8.6683738796414847E-3</v>
       </c>
     </row>
     <row r="82" spans="2:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -38430,10 +38576,12 @@
       <c r="AV82" s="11">
         <v>0.99741999999999997</v>
       </c>
-      <c r="AW82" s="11"/>
+      <c r="AW82" s="11">
+        <v>0.99751000000000001</v>
+      </c>
       <c r="AX82" s="5">
         <f t="shared" si="1"/>
-        <v>3.2093069902716572E-4</v>
+        <v>9.0232800625648677E-5</v>
       </c>
     </row>
   </sheetData>
@@ -38465,9 +38613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -38491,7 +38637,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -38501,15 +38647,15 @@
         <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D3" s="4">
         <v>3824</v>
@@ -38518,10 +38664,10 @@
         <v>3.5200000000000001E-3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H3" s="6">
         <v>2533</v>
@@ -38532,10 +38678,10 @@
     </row>
     <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D4" s="4">
         <v>1388</v>
@@ -38544,10 +38690,10 @@
         <v>1.2800000000000001E-3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H4" s="6">
         <v>1947</v>
@@ -38558,10 +38704,10 @@
     </row>
     <row r="5" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D5" s="4">
         <v>1284</v>
@@ -38570,10 +38716,10 @@
         <v>1.1800000000000001E-3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H5" s="6">
         <v>1945</v>
@@ -38584,10 +38730,10 @@
     </row>
     <row r="6" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D6" s="4">
         <v>815</v>
@@ -38596,10 +38742,10 @@
         <v>7.5000000000000002E-4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H6" s="6">
         <v>1421</v>
@@ -38610,10 +38756,10 @@
     </row>
     <row r="7" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D7" s="4">
         <v>733</v>
@@ -38622,10 +38768,10 @@
         <v>6.7000000000000002E-4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H7" s="6">
         <v>1121</v>
@@ -38636,10 +38782,10 @@
     </row>
     <row r="8" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D8" s="4">
         <v>580</v>
@@ -38648,10 +38794,10 @@
         <v>5.2999999999999998E-4</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H8" s="6">
         <v>685</v>
@@ -38662,10 +38808,10 @@
     </row>
     <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D9" s="4">
         <v>328</v>
@@ -38674,10 +38820,10 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H9" s="6">
         <v>473</v>
@@ -38688,10 +38834,10 @@
     </row>
     <row r="10" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D10" s="4">
         <v>266</v>
@@ -38700,10 +38846,10 @@
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H10" s="6">
         <v>417</v>
@@ -38714,10 +38860,10 @@
     </row>
     <row r="11" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D11" s="4">
         <v>204</v>
@@ -38726,10 +38872,10 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H11" s="6">
         <v>346</v>
@@ -38740,10 +38886,10 @@
     </row>
     <row r="12" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D12" s="4">
         <v>202</v>
@@ -38752,10 +38898,10 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H12" s="6">
         <v>301</v>
@@ -38773,7 +38919,7 @@
         <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
@@ -38783,15 +38929,15 @@
         <v>65</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D14" s="4">
         <v>1516</v>
@@ -38800,10 +38946,10 @@
         <v>1.0160000000000001E-2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H14" s="6">
         <v>6235</v>
@@ -38814,10 +38960,10 @@
     </row>
     <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D15" s="4">
         <v>1255</v>
@@ -38826,10 +38972,10 @@
         <v>8.4100000000000008E-3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H15" s="6">
         <v>3925</v>
@@ -38840,10 +38986,10 @@
     </row>
     <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D16" s="4">
         <v>1159</v>
@@ -38852,10 +38998,10 @@
         <v>7.77E-3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H16" s="6">
         <v>3248</v>
@@ -38866,10 +39012,10 @@
     </row>
     <row r="17" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D17" s="4">
         <v>1106</v>
@@ -38878,10 +39024,10 @@
         <v>7.4099999999999999E-3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H17" s="6">
         <v>2749</v>
@@ -38892,10 +39038,10 @@
     </row>
     <row r="18" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D18" s="4">
         <v>752</v>
@@ -38904,10 +39050,10 @@
         <v>5.0400000000000002E-3</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H18" s="6">
         <v>1343</v>
@@ -38918,10 +39064,10 @@
     </row>
     <row r="19" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D19" s="4">
         <v>472</v>
@@ -38930,10 +39076,10 @@
         <v>3.16E-3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H19" s="6">
         <v>1307</v>
@@ -38944,10 +39090,10 @@
     </row>
     <row r="20" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D20" s="4">
         <v>316</v>
@@ -38956,10 +39102,10 @@
         <v>2.1199999999999999E-3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H20" s="6">
         <v>921</v>
@@ -38970,10 +39116,10 @@
     </row>
     <row r="21" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D21" s="4">
         <v>298</v>
@@ -38982,10 +39128,10 @@
         <v>2E-3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H21" s="6">
         <v>583</v>
@@ -38996,10 +39142,10 @@
     </row>
     <row r="22" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D22" s="4">
         <v>228</v>
@@ -39008,10 +39154,10 @@
         <v>1.5299999999999999E-3</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H22" s="6">
         <v>536</v>
@@ -39022,10 +39168,10 @@
     </row>
     <row r="23" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D23" s="4">
         <v>220</v>
@@ -39034,10 +39180,10 @@
         <v>1.47E-3</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H23" s="6">
         <v>331</v>
@@ -39046,7 +39192,7 @@
         <v>1.7000000000000001E-4</v>
       </c>
       <c r="K23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -39058,7 +39204,7 @@
         <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
@@ -39068,15 +39214,15 @@
         <v>65</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D25" s="4">
         <v>1003</v>
@@ -39085,10 +39231,10 @@
         <v>4.0050000000000002E-2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H25" s="6">
         <v>422</v>
@@ -39099,10 +39245,10 @@
     </row>
     <row r="26" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D26" s="4">
         <v>414</v>
@@ -39111,10 +39257,10 @@
         <v>1.653E-2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H26" s="6">
         <v>270</v>
@@ -39125,10 +39271,10 @@
     </row>
     <row r="27" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D27" s="4">
         <v>188</v>
@@ -39137,10 +39283,10 @@
         <v>7.5100000000000002E-3</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H27" s="6">
         <v>249</v>
@@ -39151,10 +39297,10 @@
     </row>
     <row r="28" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D28" s="4">
         <v>102</v>
@@ -39163,10 +39309,10 @@
         <v>4.0699999999999998E-3</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H28" s="6">
         <v>171</v>
@@ -39177,10 +39323,10 @@
     </row>
     <row r="29" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D29" s="4">
         <v>88</v>
@@ -39189,10 +39335,10 @@
         <v>3.5100000000000001E-3</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H29" s="6">
         <v>106</v>
@@ -39203,10 +39349,10 @@
     </row>
     <row r="30" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D30" s="4">
         <v>61</v>
@@ -39215,10 +39361,10 @@
         <v>2.4399999999999999E-3</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H30" s="6">
         <v>57</v>
@@ -39229,10 +39375,10 @@
     </row>
     <row r="31" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D31" s="4">
         <v>53</v>
@@ -39241,10 +39387,10 @@
         <v>2.1199999999999999E-3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H31" s="6">
         <v>49</v>
@@ -39255,10 +39401,10 @@
     </row>
     <row r="32" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D32" s="4">
         <v>46</v>
@@ -39267,10 +39413,10 @@
         <v>1.8400000000000001E-3</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H32" s="6">
         <v>47</v>
@@ -39281,10 +39427,10 @@
     </row>
     <row r="33" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D33" s="4">
         <v>38</v>
@@ -39293,10 +39439,10 @@
         <v>1.5200000000000001E-3</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H33" s="6">
         <v>46</v>
@@ -39307,10 +39453,10 @@
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D34" s="4">
         <v>30</v>
@@ -39319,10 +39465,10 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H34" s="6">
         <v>36</v>
@@ -39340,7 +39486,7 @@
         <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -39349,10 +39495,10 @@
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D36" s="4">
         <v>8705</v>
@@ -39361,7 +39507,7 @@
         <v>7.3419999999999999E-2</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
@@ -39369,10 +39515,10 @@
     </row>
     <row r="37" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D37" s="4">
         <v>227</v>
@@ -39381,7 +39527,7 @@
         <v>1.91E-3</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="6"/>
@@ -39389,10 +39535,10 @@
     </row>
     <row r="38" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D38" s="4">
         <v>187</v>
@@ -39401,7 +39547,7 @@
         <v>1.58E-3</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="6"/>
@@ -39409,10 +39555,10 @@
     </row>
     <row r="39" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D39" s="4">
         <v>161</v>
@@ -39421,7 +39567,7 @@
         <v>1.3600000000000001E-3</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="6"/>
@@ -39429,10 +39575,10 @@
     </row>
     <row r="40" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D40" s="4">
         <v>78</v>
@@ -39441,7 +39587,7 @@
         <v>6.6E-4</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="6"/>
@@ -39449,10 +39595,10 @@
     </row>
     <row r="41" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D41" s="4">
         <v>50</v>
@@ -39461,7 +39607,7 @@
         <v>4.2000000000000002E-4</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="6"/>
@@ -39469,10 +39615,10 @@
     </row>
     <row r="42" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D42" s="4">
         <v>37</v>
@@ -39481,7 +39627,7 @@
         <v>3.1E-4</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="6"/>
@@ -39489,10 +39635,10 @@
     </row>
     <row r="43" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D43" s="4">
         <v>37</v>
@@ -39501,7 +39647,7 @@
         <v>3.1E-4</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="6"/>
@@ -39509,10 +39655,10 @@
     </row>
     <row r="44" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D44" s="4">
         <v>35</v>
@@ -39521,7 +39667,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="6"/>
@@ -39529,10 +39675,10 @@
     </row>
     <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D45" s="4">
         <v>30</v>
@@ -39541,7 +39687,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="6"/>
@@ -39558,7 +39704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -39583,7 +39729,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
@@ -39593,267 +39739,267 @@
         <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D3" s="4">
-        <v>537</v>
+        <v>493</v>
       </c>
       <c r="E3" s="5">
-        <v>1.042E-2</v>
+        <v>8.3199999999999993E-3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H3" s="6">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="I3" s="5">
-        <v>5.0360000000000002E-2</v>
+        <v>5.0439999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D4" s="4">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="E4" s="5">
-        <v>5.2199999999999998E-3</v>
+        <v>2.7299999999999998E-3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H4" s="6">
-        <v>408</v>
+        <v>556</v>
       </c>
       <c r="I4" s="5">
-        <v>2.1250000000000002E-2</v>
+        <v>2.9059999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D5" s="4">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E5" s="5">
-        <v>2.7000000000000001E-3</v>
+        <v>2.5500000000000002E-3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H5" s="6">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="I5" s="5">
-        <v>1.5990000000000001E-2</v>
+        <v>1.814E-2</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D6" s="4">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E6" s="5">
-        <v>2.2699999999999999E-3</v>
+        <v>1.92E-3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H6" s="6">
         <v>296</v>
       </c>
       <c r="I6" s="5">
-        <v>1.542E-2</v>
+        <v>1.5469999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D7" s="4">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E7" s="5">
-        <v>1.7899999999999999E-3</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H7" s="6">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="I7" s="5">
-        <v>9.0100000000000006E-3</v>
+        <v>8.4700000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D8" s="4">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E8" s="5">
-        <v>1.1100000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H8" s="6">
         <v>158</v>
       </c>
       <c r="I8" s="5">
-        <v>8.2299999999999995E-3</v>
+        <v>8.26E-3</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D9" s="4">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" s="5">
-        <v>1.0300000000000001E-3</v>
+        <v>8.4000000000000003E-4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H9" s="6">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I9" s="5">
-        <v>4.79E-3</v>
+        <v>4.9100000000000003E-3</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D10" s="4">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5">
-        <v>9.7000000000000005E-4</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H10" s="6">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I10" s="5">
-        <v>4.5300000000000002E-3</v>
+        <v>4.81E-3</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D11" s="4">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11" s="5">
-        <v>9.1E-4</v>
+        <v>7.1000000000000002E-4</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H11" s="6">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="I11" s="5">
-        <v>3.5400000000000002E-3</v>
+        <v>4.81E-3</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D12" s="4">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E12" s="5">
-        <v>8.4999999999999995E-4</v>
+        <v>6.2E-4</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H12" s="6">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I12" s="5">
-        <v>3.2299999999999998E-3</v>
+        <v>3.6099999999999999E-3</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -39865,7 +40011,7 @@
         <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
@@ -39875,270 +40021,270 @@
         <v>65</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D14" s="4">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="E14" s="5">
-        <v>1.5910000000000001E-2</v>
+        <v>2.2440000000000002E-2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H14" s="6">
-        <v>1120</v>
+        <v>1095</v>
       </c>
       <c r="I14" s="5">
-        <v>3.6260000000000001E-2</v>
+        <v>3.5110000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D15" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E15" s="5">
-        <v>1.549E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H15" s="6">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="I15" s="5">
-        <v>1.098E-2</v>
+        <v>1.068E-2</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D16" s="4">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="E16" s="5">
-        <v>1.3100000000000001E-2</v>
+        <v>1.465E-2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H16" s="6">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="I16" s="5">
-        <v>6.2199999999999998E-3</v>
+        <v>6.4799999999999996E-3</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D17" s="4">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E17" s="5">
-        <v>1.3100000000000001E-2</v>
+        <v>1.2959999999999999E-2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H17" s="6">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="I17" s="5">
-        <v>4.9500000000000004E-3</v>
+        <v>4.3600000000000002E-3</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D18" s="4">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E18" s="5">
-        <v>1.268E-2</v>
+        <v>1.2189999999999999E-2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H18" s="6">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="I18" s="5">
-        <v>2.98E-3</v>
+        <v>3.62E-3</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D19" s="4">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E19" s="5">
-        <v>4.4200000000000003E-3</v>
+        <v>6.5199999999999998E-3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H19" s="6">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I19" s="5">
-        <v>2.7799999999999999E-3</v>
+        <v>2.5999999999999999E-3</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D20" s="4">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E20" s="5">
-        <v>4.0800000000000003E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H20" s="6">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I20" s="5">
-        <v>2.65E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D21" s="4">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E21" s="5">
-        <v>3.7399999999999998E-3</v>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H21" s="6">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I21" s="5">
-        <v>1.6800000000000001E-3</v>
+        <v>2.0200000000000001E-3</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D22" s="4">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E22" s="5">
-        <v>3.49E-3</v>
+        <v>3.98E-3</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H22" s="6">
         <v>48</v>
       </c>
       <c r="I22" s="5">
-        <v>1.5499999999999999E-3</v>
+        <v>1.5399999999999999E-3</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D23" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="5">
-        <v>3.3999999999999998E-3</v>
+        <v>3.47E-3</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H23" s="6">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I23" s="5">
-        <v>6.2E-4</v>
+        <v>1.15E-3</v>
       </c>
       <c r="K23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -40150,7 +40296,7 @@
         <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
@@ -40160,267 +40306,267 @@
         <v>65</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D25" s="4">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E25" s="5">
-        <v>5.654E-2</v>
+        <v>5.1299999999999998E-2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H25" s="6">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I25" s="5">
-        <v>2.8510000000000001E-2</v>
+        <v>3.0679999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D26" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" s="5">
-        <v>3.8129999999999997E-2</v>
+        <v>3.7010000000000001E-2</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H26" s="6">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I26" s="5">
-        <v>1.7680000000000001E-2</v>
+        <v>1.8689999999999998E-2</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D27" s="4">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E27" s="5">
-        <v>2.7609999999999999E-2</v>
+        <v>3.5709999999999999E-2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H27" s="6">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I27" s="5">
-        <v>1.2630000000000001E-2</v>
+        <v>1.5509999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D28" s="4">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E28" s="5">
-        <v>2.6960000000000001E-2</v>
+        <v>2.273E-2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H28" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I28" s="5">
-        <v>8.3000000000000001E-3</v>
+        <v>8.4600000000000005E-3</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D29" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E29" s="5">
-        <v>1.644E-2</v>
+        <v>1.299E-2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H29" s="6">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I29" s="5">
-        <v>4.3299999999999996E-3</v>
+        <v>7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D30" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E30" s="5">
-        <v>1.2489999999999999E-2</v>
+        <v>9.0900000000000009E-3</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H30" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I30" s="5">
-        <v>3.6099999999999999E-3</v>
+        <v>3.8800000000000002E-3</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D31" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E31" s="5">
-        <v>1.1180000000000001E-2</v>
+        <v>7.1399999999999996E-3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H31" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I31" s="5">
-        <v>2.1700000000000001E-3</v>
+        <v>2.82E-3</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D32" s="4">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E32" s="5">
-        <v>1.1180000000000001E-2</v>
+        <v>6.4900000000000001E-3</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H32" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I32" s="5">
-        <v>2.1700000000000001E-3</v>
+        <v>1.7600000000000001E-3</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D33" s="4">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E33" s="5">
-        <v>9.8600000000000007E-3</v>
+        <v>5.1900000000000002E-3</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H33" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33" s="5">
-        <v>1.8E-3</v>
+        <v>1.06E-3</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D34" s="4">
         <v>7</v>
       </c>
       <c r="E34" s="5">
-        <v>4.5999999999999999E-3</v>
+        <v>4.5500000000000002E-3</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H34" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" s="5">
-        <v>1.4400000000000001E-3</v>
+        <v>1.06E-3</v>
       </c>
     </row>
     <row r="35" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -40432,7 +40578,7 @@
         <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -40441,19 +40587,19 @@
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D36" s="4">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E36" s="5">
-        <v>3.6769999999999997E-2</v>
+        <v>3.193E-2</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
@@ -40461,19 +40607,19 @@
     </row>
     <row r="37" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D37" s="4">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E37" s="5">
-        <v>2.2540000000000001E-2</v>
+        <v>2.521E-2</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="6"/>
@@ -40481,19 +40627,19 @@
     </row>
     <row r="38" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D38" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E38" s="5">
-        <v>1.898E-2</v>
+        <v>2.017E-2</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="6"/>
@@ -40501,19 +40647,19 @@
     </row>
     <row r="39" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D39" s="4">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E39" s="5">
-        <v>4.15E-3</v>
+        <v>1.2319999999999999E-2</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="6"/>
@@ -40521,19 +40667,19 @@
     </row>
     <row r="40" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D40" s="4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E40" s="5">
-        <v>3.5599999999999998E-3</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="6"/>
@@ -40541,19 +40687,19 @@
     </row>
     <row r="41" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D41" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E41" s="5">
-        <v>1.7799999999999999E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="6"/>
@@ -40561,19 +40707,19 @@
     </row>
     <row r="42" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D42" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E42" s="5">
-        <v>1.7799999999999999E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="6"/>
@@ -40581,19 +40727,19 @@
     </row>
     <row r="43" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D43" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E43" s="5">
-        <v>1.1900000000000001E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="6"/>
@@ -40601,19 +40747,19 @@
     </row>
     <row r="44" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D44" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" s="5">
-        <v>1.1900000000000001E-3</v>
+        <v>1.6800000000000001E-3</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="6"/>
@@ -40621,19 +40767,19 @@
     </row>
     <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D45" s="4">
         <v>2</v>
       </c>
       <c r="E45" s="5">
-        <v>1.1900000000000001E-3</v>
+        <v>1.1199999999999999E-3</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="6"/>
@@ -40760,7 +40906,7 @@
         <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>102</v>
@@ -40772,52 +40918,52 @@
         <v>101</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="T3" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>415</v>
-      </c>
       <c r="V3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="X3" s="2"/>
     </row>
@@ -41109,34 +41255,34 @@
         <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>111</v>
@@ -41148,25 +41294,25 @@
         <v>111</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="X8" s="2"/>
     </row>
@@ -41459,10 +41605,10 @@
         <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>115</v>
@@ -41471,22 +41617,22 @@
         <v>115</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>111</v>
@@ -41501,22 +41647,22 @@
         <v>115</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="X13" s="2"/>
       <c r="AD13" s="13"/>
@@ -41811,64 +41957,64 @@
         <v>99</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="X18" s="2"/>
     </row>
@@ -42160,7 +42306,7 @@
         <v>99</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>103</v>
@@ -42172,43 +42318,43 @@
         <v>123</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>124</v>
@@ -42217,7 +42363,7 @@
         <v>124</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="X23" s="2"/>
     </row>
@@ -42509,64 +42655,64 @@
         <v>99</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="X28" s="2"/>
     </row>
@@ -42870,31 +43016,31 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>137</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="72"/>
@@ -43144,25 +43290,25 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>142</v>
@@ -43406,7 +43552,7 @@
         <v>99</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>153</v>
@@ -43460,7 +43606,7 @@
         <v>153</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W43" s="2" t="s">
         <v>155</v>
@@ -43755,7 +43901,7 @@
         <v>99</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>163</v>
@@ -43800,13 +43946,13 @@
         <v>166</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="T48" s="2" t="s">
         <v>167</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="V48" s="2" t="s">
         <v>167</v>
@@ -44161,10 +44307,10 @@
         <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>101</v>
@@ -44255,13 +44401,13 @@
         <v>99</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -44348,10 +44494,10 @@
         <v>99</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>110</v>
@@ -44445,13 +44591,13 @@
         <v>99</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -44539,13 +44685,13 @@
         <v>99</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -44633,13 +44779,13 @@
         <v>99</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -44727,10 +44873,10 @@
         <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>152</v>
@@ -44821,10 +44967,10 @@
         <v>99</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>164</v>
